--- a/time17.xlsx
+++ b/time17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D486"/>
+  <dimension ref="A1:D353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.117632315764489</v>
+        <v>1.275773543171797</v>
       </c>
       <c r="C2" t="n">
-        <v>1.127096141632384</v>
+        <v>1.451614311186895</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.009463825867895403</v>
+        <v>-0.175840768015098</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.119289757142356</v>
+        <v>1.347977214966968</v>
       </c>
       <c r="C3" t="n">
-        <v>1.22461854999471</v>
+        <v>1.43179222611029</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1053287928523543</v>
+        <v>-0.08381501114332202</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.152177721657379</v>
+        <v>1.361929227518892</v>
       </c>
       <c r="C4" t="n">
-        <v>1.31535751956296</v>
+        <v>1.38896832340552</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1631797979055807</v>
+        <v>-0.02703909588662778</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.210008551160243</v>
+        <v>1.366348717012596</v>
       </c>
       <c r="C5" t="n">
-        <v>1.275925867532494</v>
+        <v>1.429695311064715</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.06591731637225173</v>
+        <v>-0.06334659405211962</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.230385814856207</v>
+        <v>1.385187824213754</v>
       </c>
       <c r="C6" t="n">
-        <v>1.236142524116879</v>
+        <v>1.404685612417763</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.00575670926067251</v>
+        <v>-0.01949778820400905</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.248943677033387</v>
+        <v>1.393831333605128</v>
       </c>
       <c r="C7" t="n">
-        <v>2.331184717515559</v>
+        <v>1.4274925428523</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.08224104048217162</v>
+        <v>-0.03366120924717264</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.253841521162653</v>
+        <v>1.41556754341698</v>
       </c>
       <c r="C8" t="n">
-        <v>2.255077224858997</v>
+        <v>1.458656224606126</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.001235703696343293</v>
+        <v>-0.04308868118914533</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.258105002591609</v>
+        <v>1.423522850589841</v>
       </c>
       <c r="C9" t="n">
-        <v>2.414502251703202</v>
+        <v>1.44181254863334</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1563972491115937</v>
+        <v>-0.01828969804349967</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.260612216571428</v>
+        <v>2.335169657173271</v>
       </c>
       <c r="C10" t="n">
-        <v>2.278106036292299</v>
+        <v>2.400738365657513</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.01749381972087116</v>
+        <v>-0.06556870848424134</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.335983229622235</v>
+        <v>2.383674957270663</v>
       </c>
       <c r="C11" t="n">
-        <v>2.424960743022735</v>
+        <v>2.529446956091821</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0889775134005002</v>
+        <v>-0.1457719988211581</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.341028925422952</v>
+        <v>2.402105480879027</v>
       </c>
       <c r="C12" t="n">
-        <v>2.457757365302446</v>
+        <v>2.445396411112484</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1167284398794943</v>
+        <v>-0.04329093023345632</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.34755777275598</v>
+        <v>2.40783860103228</v>
       </c>
       <c r="C13" t="n">
-        <v>2.458029722640578</v>
+        <v>2.466281175765117</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1104719498845976</v>
+        <v>-0.05844257473283676</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.37992061872114</v>
+        <v>2.416178009430758</v>
       </c>
       <c r="C14" t="n">
-        <v>2.449758215128371</v>
+        <v>2.460197235925643</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.06983759640723086</v>
+        <v>-0.0440192264948851</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.401548471921476</v>
+        <v>2.420878423357369</v>
       </c>
       <c r="C15" t="n">
-        <v>2.432352539493367</v>
+        <v>2.467520237808015</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.03080406757189103</v>
+        <v>-0.04664181445064619</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2.423487539839522</v>
+        <v>2.452010338968674</v>
       </c>
       <c r="C16" t="n">
-        <v>2.460903646984641</v>
+        <v>2.45941368032045</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.03741610714511845</v>
+        <v>-0.007403341351776227</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2.431404295616229</v>
+        <v>5.968883093905558</v>
       </c>
       <c r="C17" t="n">
-        <v>2.46930307781689</v>
+        <v>6.008799676486565</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0378987822006609</v>
+        <v>-0.03991658258100728</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2.523146038132214</v>
+        <v>5.991942392872073</v>
       </c>
       <c r="C18" t="n">
-        <v>2.450607160151777</v>
+        <v>6.173727398842976</v>
       </c>
       <c r="D18" t="n">
-        <v>0.07253887798043657</v>
+        <v>-0.1817850059709034</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.623551144251084</v>
+        <v>5.992333329659504</v>
       </c>
       <c r="C19" t="n">
-        <v>4.75801676649229</v>
+        <v>6.058358277483311</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1344656222412057</v>
+        <v>-0.06602494782380752</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.634397164834606</v>
+        <v>6.011570472190644</v>
       </c>
       <c r="C20" t="n">
-        <v>4.640027700685231</v>
+        <v>6.025312523068494</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.005630535850624341</v>
+        <v>-0.01374205087785008</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.668057844548673</v>
+        <v>6.011947699296321</v>
       </c>
       <c r="C21" t="n">
-        <v>4.72298004225382</v>
+        <v>6.080369289407194</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.05492219770514684</v>
+        <v>-0.06842159011087379</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.687525070898305</v>
+        <v>6.016135026277876</v>
       </c>
       <c r="C22" t="n">
-        <v>4.704448659695088</v>
+        <v>6.155400427369767</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.01692358879678313</v>
+        <v>-0.1392654010918912</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.697188356761682</v>
+        <v>6.026572939531035</v>
       </c>
       <c r="C23" t="n">
-        <v>4.790406896156568</v>
+        <v>6.121854306633978</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.09321853939488634</v>
+        <v>-0.09528136710294266</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.705270695343122</v>
+        <v>6.046323434950985</v>
       </c>
       <c r="C24" t="n">
-        <v>4.714899299371503</v>
+        <v>6.147914198990112</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.009628604028380394</v>
+        <v>-0.1015907640391278</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.706292561471047</v>
+        <v>6.095961842122042</v>
       </c>
       <c r="C25" t="n">
-        <v>4.807393095445219</v>
+        <v>6.131275668998122</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1011005339741722</v>
+        <v>-0.03531382687607998</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.71776573850683</v>
+        <v>6.133902853132944</v>
       </c>
       <c r="C26" t="n">
-        <v>4.803383353918137</v>
+        <v>6.139545458757198</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.08561761541130686</v>
+        <v>-0.005642605624254671</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5.728293755503586</v>
+        <v>6.772398043098741</v>
       </c>
       <c r="C27" t="n">
-        <v>5.741578024874074</v>
+        <v>6.121016352764244</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.01328426937048821</v>
+        <v>0.6513816903344978</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5.735733992368956</v>
+        <v>7.280067584645768</v>
       </c>
       <c r="C28" t="n">
-        <v>5.851727920706657</v>
+        <v>7.319908011685349</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1159939283377014</v>
+        <v>-0.03984042703958135</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5.763324741920107</v>
+        <v>7.306957307738247</v>
       </c>
       <c r="C29" t="n">
-        <v>5.78212384125916</v>
+        <v>7.360808269457474</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.01879909933905299</v>
+        <v>-0.05385096171922665</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5.809938600518048</v>
+        <v>7.307394086828092</v>
       </c>
       <c r="C30" t="n">
-        <v>5.917360985472108</v>
+        <v>7.350060982165105</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.1074223849540603</v>
+        <v>-0.04266689533701307</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>5.856136251068728</v>
+        <v>7.314893030125467</v>
       </c>
       <c r="C31" t="n">
-        <v>5.905624690125359</v>
+        <v>7.388878424271857</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.04948843905663125</v>
+        <v>-0.07398539414638972</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5.874796853704074</v>
+        <v>7.330768400800489</v>
       </c>
       <c r="C32" t="n">
-        <v>5.901114853506708</v>
+        <v>7.367734735111728</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.02631799980263327</v>
+        <v>-0.03696633431123963</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5.882271523796776</v>
+        <v>7.344006957089668</v>
       </c>
       <c r="C33" t="n">
-        <v>5.897545348215592</v>
+        <v>7.367138147394239</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.01527382441881553</v>
+        <v>-0.02313119030457056</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>6.68574698660577</v>
+        <v>7.366921877935541</v>
       </c>
       <c r="C34" t="n">
-        <v>6.697647603295949</v>
+        <v>7.411318178212373</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.01190061669017872</v>
+        <v>-0.04439630027683261</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>6.69436986299894</v>
+        <v>7.376662089213282</v>
       </c>
       <c r="C35" t="n">
-        <v>6.820130172903253</v>
+        <v>7.398274215752875</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1257603099043134</v>
+        <v>-0.02161212653959321</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>6.736724688513953</v>
+        <v>7.407134570752197</v>
       </c>
       <c r="C36" t="n">
-        <v>6.74133141763174</v>
+        <v>7.414549438801704</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.004606729117786479</v>
+        <v>-0.007414868049507639</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6.782105957671514</v>
+        <v>7.408842653974306</v>
       </c>
       <c r="C37" t="n">
-        <v>6.793149535722955</v>
+        <v>7.477540815266154</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.01104357805144041</v>
+        <v>-0.0686981612918478</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6.785329155618554</v>
+        <v>7.433480993983919</v>
       </c>
       <c r="C38" t="n">
-        <v>6.840194378579004</v>
+        <v>7.45437752460792</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.05486522296045049</v>
+        <v>-0.02089653062400121</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>6.79456040301445</v>
+        <v>7.440634294887548</v>
       </c>
       <c r="C39" t="n">
-        <v>6.844884224204415</v>
+        <v>7.442292213289141</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.05032382118996548</v>
+        <v>-0.001657918401592795</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>6.824574127447521</v>
+        <v>7.761669375138813</v>
       </c>
       <c r="C40" t="n">
-        <v>6.863478757680229</v>
+        <v>7.434821663025112</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.0389046302327074</v>
+        <v>0.3268477121137012</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>7.447942051905727</v>
+        <v>22.31850393937586</v>
       </c>
       <c r="C41" t="n">
-        <v>7.66439297702754</v>
+        <v>22.4880679202891</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.216450925121813</v>
+        <v>-0.1695639809132459</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>7.459986197134122</v>
+        <v>22.32789181592346</v>
       </c>
       <c r="C42" t="n">
-        <v>7.645798146338449</v>
+        <v>22.36756762381794</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.1858119492043269</v>
+        <v>-0.03967580789447567</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>7.465272964458046</v>
+        <v>22.33200635441431</v>
       </c>
       <c r="C43" t="n">
-        <v>7.613553412883326</v>
+        <v>22.44887195124131</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.1482804484252807</v>
+        <v>-0.1168655968269974</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>7.475052073861152</v>
+        <v>22.36055153609631</v>
       </c>
       <c r="C44" t="n">
-        <v>7.657190773136898</v>
+        <v>22.36185058269712</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.1821386992757468</v>
+        <v>-0.001299046600809817</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>7.476818028431921</v>
+        <v>22.39933292541937</v>
       </c>
       <c r="C45" t="n">
-        <v>7.562742911164956</v>
+        <v>22.51075389909556</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.08592488273303545</v>
+        <v>-0.1114209736761964</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1071,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>7.483763410938614</v>
+        <v>22.39978829245652</v>
       </c>
       <c r="C46" t="n">
-        <v>7.529955167817434</v>
+        <v>22.50295115156433</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.04619175687881949</v>
+        <v>-0.1031628591078082</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>7.494495336506448</v>
+        <v>22.42231365810878</v>
       </c>
       <c r="C47" t="n">
-        <v>7.654138300999678</v>
+        <v>22.4661654581879</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.15964296449323</v>
+        <v>-0.04385180007911771</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>7.514379330690233</v>
+        <v>22.42395255657051</v>
       </c>
       <c r="C48" t="n">
-        <v>7.584746296390876</v>
+        <v>22.53210847785631</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.07036696570064294</v>
+        <v>-0.1081559212857996</v>
       </c>
     </row>
     <row r="49">
@@ -1113,13 +1113,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>7.514573277479887</v>
+        <v>22.42980282779203</v>
       </c>
       <c r="C49" t="n">
-        <v>7.667449690012958</v>
+        <v>22.5033008967233</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.1528764125330708</v>
+        <v>-0.07349806893126853</v>
       </c>
     </row>
     <row r="50">
@@ -1127,13 +1127,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>7.548142257031682</v>
+        <v>22.43009078034866</v>
       </c>
       <c r="C50" t="n">
-        <v>7.590518295046961</v>
+        <v>22.56836064585676</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.04237603801527889</v>
+        <v>-0.1382698655080929</v>
       </c>
     </row>
     <row r="51">
@@ -1141,13 +1141,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>7.561713960516709</v>
+        <v>22.44683383943236</v>
       </c>
       <c r="C51" t="n">
-        <v>7.659656606644417</v>
+        <v>22.63113504035406</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.09794264612770842</v>
+        <v>-0.1843012009217055</v>
       </c>
     </row>
     <row r="52">
@@ -1155,13 +1155,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>7.582626222490086</v>
+        <v>22.44843048944721</v>
       </c>
       <c r="C52" t="n">
-        <v>7.585947883115922</v>
+        <v>22.5585330561692</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.003321660625835499</v>
+        <v>-0.110102566721995</v>
       </c>
     </row>
     <row r="53">
@@ -1169,13 +1169,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>7.612941306421541</v>
+        <v>22.47208706868527</v>
       </c>
       <c r="C53" t="n">
-        <v>7.642694211612725</v>
+        <v>22.57519775813054</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.02975290519118445</v>
+        <v>-0.1031106894452662</v>
       </c>
     </row>
     <row r="54">
@@ -1183,13 +1183,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>7.642041209872747</v>
+        <v>22.47483115073258</v>
       </c>
       <c r="C54" t="n">
-        <v>7.671864791601665</v>
+        <v>22.53343553167563</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.02982358172891786</v>
+        <v>-0.05860438094305209</v>
       </c>
     </row>
     <row r="55">
@@ -1197,13 +1197,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>8.089642346346098</v>
+        <v>22.48618422109356</v>
       </c>
       <c r="C55" t="n">
-        <v>7.651134926613948</v>
+        <v>22.5033949828902</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4385074197321499</v>
+        <v>-0.01721076179663683</v>
       </c>
     </row>
     <row r="56">
@@ -1211,13 +1211,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>8.095687232817244</v>
+        <v>22.49501332040364</v>
       </c>
       <c r="C56" t="n">
-        <v>8.237007749400313</v>
+        <v>22.59940587811031</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.1413205165830682</v>
+        <v>-0.1043925577066709</v>
       </c>
     </row>
     <row r="57">
@@ -1225,13 +1225,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>8.096590474869972</v>
+        <v>22.52937834687294</v>
       </c>
       <c r="C57" t="n">
-        <v>8.188102862392237</v>
+        <v>22.60902240251233</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.09151238752226476</v>
+        <v>-0.07964405563939536</v>
       </c>
     </row>
     <row r="58">
@@ -1239,13 +1239,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>8.100479860154127</v>
+        <v>22.57274624926436</v>
       </c>
       <c r="C58" t="n">
-        <v>8.207278746873824</v>
+        <v>22.48438406729255</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.1067988867196963</v>
+        <v>0.08836218197180656</v>
       </c>
     </row>
     <row r="59">
@@ -1253,13 +1253,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>8.106878173814785</v>
+        <v>22.58084763363153</v>
       </c>
       <c r="C59" t="n">
-        <v>8.20259503890767</v>
+        <v>22.6160065955645</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.09571686509288568</v>
+        <v>-0.03515896193296442</v>
       </c>
     </row>
     <row r="60">
@@ -1267,13 +1267,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>8.137455564773624</v>
+        <v>22.60415989540653</v>
       </c>
       <c r="C60" t="n">
-        <v>8.143826687919111</v>
+        <v>22.61898047331923</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.006371123145486379</v>
+        <v>-0.01482057791269398</v>
       </c>
     </row>
     <row r="61">
@@ -1281,13 +1281,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>8.144817538495346</v>
+        <v>22.62129448046922</v>
       </c>
       <c r="C61" t="n">
-        <v>8.263199286024539</v>
+        <v>22.6231357093587</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.1183817475291935</v>
+        <v>-0.001841228889485791</v>
       </c>
     </row>
     <row r="62">
@@ -1295,13 +1295,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>8.152751931756082</v>
+        <v>22.81628524087332</v>
       </c>
       <c r="C62" t="n">
-        <v>8.279925372737548</v>
+        <v>22.4855330205259</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.1271734409814655</v>
+        <v>0.3307522203474278</v>
       </c>
     </row>
     <row r="63">
@@ -1309,13 +1309,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>8.186992592551205</v>
+        <v>25.44384640534017</v>
       </c>
       <c r="C63" t="n">
-        <v>8.288818247041752</v>
+        <v>25.44555913628783</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.1018256544905469</v>
+        <v>-0.001712730947662777</v>
       </c>
     </row>
     <row r="64">
@@ -1323,13 +1323,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>8.193019700541013</v>
+        <v>25.44543583427658</v>
       </c>
       <c r="C64" t="n">
-        <v>8.27761275838551</v>
+        <v>25.60290806282542</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.08459305784449711</v>
+        <v>-0.1574722285488441</v>
       </c>
     </row>
     <row r="65">
@@ -1337,13 +1337,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>8.203277491417404</v>
+        <v>25.44727074964677</v>
       </c>
       <c r="C65" t="n">
-        <v>8.281305369112253</v>
+        <v>25.50395591911926</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.07802787769484887</v>
+        <v>-0.05668516947249458</v>
       </c>
     </row>
     <row r="66">
@@ -1351,13 +1351,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>8.232284572797601</v>
+        <v>25.44953327598423</v>
       </c>
       <c r="C66" t="n">
-        <v>8.318354004160041</v>
+        <v>25.65817223204944</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.08606943136243927</v>
+        <v>-0.2086389560652151</v>
       </c>
     </row>
     <row r="67">
@@ -1365,13 +1365,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>8.265748403340398</v>
+        <v>25.45632853835407</v>
       </c>
       <c r="C67" t="n">
-        <v>8.289473637747395</v>
+        <v>25.57135379396999</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.02372523440699759</v>
+        <v>-0.1150252556159188</v>
       </c>
     </row>
     <row r="68">
@@ -1379,13 +1379,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>8.308479361558735</v>
+        <v>25.50396337390785</v>
       </c>
       <c r="C68" t="n">
-        <v>8.449260584501259</v>
+        <v>25.51911331976086</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.1407812229425236</v>
+        <v>-0.01514994585301466</v>
       </c>
     </row>
     <row r="69">
@@ -1393,13 +1393,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>8.331823716796515</v>
+        <v>25.5357624450872</v>
       </c>
       <c r="C69" t="n">
-        <v>8.37454927506322</v>
+        <v>25.59621879361978</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.04272555826670477</v>
+        <v>-0.06045634853257553</v>
       </c>
     </row>
     <row r="70">
@@ -1407,13 +1407,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>8.339896700531906</v>
+        <v>25.5638300605633</v>
       </c>
       <c r="C70" t="n">
-        <v>8.434704592954075</v>
+        <v>25.57347557391223</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.09480789242216936</v>
+        <v>-0.00964551334892505</v>
       </c>
     </row>
     <row r="71">
@@ -1421,13 +1421,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>8.365828856875957</v>
+        <v>25.58156327323624</v>
       </c>
       <c r="C71" t="n">
-        <v>8.47316634061416</v>
+        <v>25.57642505520027</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.1073374837382026</v>
+        <v>0.005138218035973807</v>
       </c>
     </row>
     <row r="72">
@@ -1435,13 +1435,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>8.366875856751227</v>
+        <v>36.90103833058082</v>
       </c>
       <c r="C72" t="n">
-        <v>8.431714584394053</v>
+        <v>37.09702355358486</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.06483872764282594</v>
+        <v>-0.1959852230040369</v>
       </c>
     </row>
     <row r="73">
@@ -1449,13 +1449,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>8.372091233041949</v>
+        <v>36.90561329602991</v>
       </c>
       <c r="C73" t="n">
-        <v>8.225156752298798</v>
+        <v>36.91599973922104</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1469344807431519</v>
+        <v>-0.01038644319112336</v>
       </c>
     </row>
     <row r="74">
@@ -1463,13 +1463,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>8.403754936084731</v>
+        <v>36.92964473227946</v>
       </c>
       <c r="C74" t="n">
-        <v>8.463538381563083</v>
+        <v>37.07168828040917</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.05978344547835235</v>
+        <v>-0.1420435481297133</v>
       </c>
     </row>
     <row r="75">
@@ -1477,13 +1477,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>8.421708444362469</v>
+        <v>36.96054572471672</v>
       </c>
       <c r="C75" t="n">
-        <v>8.441118572120658</v>
+        <v>37.04594953049308</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.01941012775818862</v>
+        <v>-0.08540380577635887</v>
       </c>
     </row>
     <row r="76">
@@ -1491,13 +1491,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>8.422892799616736</v>
+        <v>37.01938300837247</v>
       </c>
       <c r="C76" t="n">
-        <v>8.435999756268981</v>
+        <v>37.0379563189415</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.01310695665224415</v>
+        <v>-0.01857331056902467</v>
       </c>
     </row>
     <row r="77">
@@ -1505,13 +1505,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>8.423837087340591</v>
+        <v>37.02671476024861</v>
       </c>
       <c r="C77" t="n">
-        <v>8.471792012349928</v>
+        <v>37.08854145996908</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.0479549250093374</v>
+        <v>-0.06182669972046995</v>
       </c>
     </row>
     <row r="78">
@@ -1519,13 +1519,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>8.535429287520657</v>
+        <v>37.02823545263806</v>
       </c>
       <c r="C78" t="n">
-        <v>8.283677686838884</v>
+        <v>37.0864163473609</v>
       </c>
       <c r="D78" t="n">
-        <v>0.2517516006817733</v>
+        <v>-0.05818089472283816</v>
       </c>
     </row>
     <row r="79">
@@ -1533,13 +1533,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>8.62661396063579</v>
+        <v>37.04059814437922</v>
       </c>
       <c r="C79" t="n">
-        <v>8.45189915137861</v>
+        <v>37.09090425159674</v>
       </c>
       <c r="D79" t="n">
-        <v>0.1747148092571802</v>
+        <v>-0.05030610721751572</v>
       </c>
     </row>
     <row r="80">
@@ -1547,13 +1547,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>11.28625583180431</v>
+        <v>37.06406184449001</v>
       </c>
       <c r="C80" t="n">
-        <v>11.47117837004636</v>
+        <v>37.08815879762617</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.1849225382420538</v>
+        <v>-0.02409695313616567</v>
       </c>
     </row>
     <row r="81">
@@ -1561,13 +1561,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>11.29272043219503</v>
+        <v>37.0828934789233</v>
       </c>
       <c r="C81" t="n">
-        <v>11.39918815024364</v>
+        <v>37.12152726020506</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.1064677180486058</v>
+        <v>-0.03863378128176009</v>
       </c>
     </row>
     <row r="82">
@@ -1575,13 +1575,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11.29377385855537</v>
+        <v>37.1921717046802</v>
       </c>
       <c r="C82" t="n">
-        <v>11.38021253101088</v>
+        <v>37.07357589296826</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.08643867245551462</v>
+        <v>0.1185958117119341</v>
       </c>
     </row>
     <row r="83">
@@ -1589,13 +1589,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>11.30926487943496</v>
+        <v>37.26061612642168</v>
       </c>
       <c r="C83" t="n">
-        <v>11.3394771716672</v>
+        <v>37.39901925572205</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.03021229223224431</v>
+        <v>-0.1384031293003716</v>
       </c>
     </row>
     <row r="84">
@@ -1603,13 +1603,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>11.32085682516077</v>
+        <v>37.26433090463976</v>
       </c>
       <c r="C84" t="n">
-        <v>11.40335545639039</v>
+        <v>37.31451091913692</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.08249863122961898</v>
+        <v>-0.05018001449716536</v>
       </c>
     </row>
     <row r="85">
@@ -1617,13 +1617,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11.32910245268557</v>
+        <v>37.30177424989518</v>
       </c>
       <c r="C85" t="n">
-        <v>11.3328523493023</v>
+        <v>37.32206757881151</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.003749896616730197</v>
+        <v>-0.02029332891632407</v>
       </c>
     </row>
     <row r="86">
@@ -1631,13 +1631,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>11.33210452665994</v>
+        <v>37.3150930126538</v>
       </c>
       <c r="C86" t="n">
-        <v>11.4628706734667</v>
+        <v>37.42930030243213</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.13076614680676</v>
+        <v>-0.1142072897783208</v>
       </c>
     </row>
     <row r="87">
@@ -1645,13 +1645,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>11.36107417207653</v>
+        <v>37.31921079106919</v>
       </c>
       <c r="C87" t="n">
-        <v>11.3989793285441</v>
+        <v>37.38116753209091</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.03790515646756987</v>
+        <v>-0.06195674102172433</v>
       </c>
     </row>
     <row r="88">
@@ -1659,13 +1659,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>11.38261206808712</v>
+        <v>37.32729472132816</v>
       </c>
       <c r="C88" t="n">
-        <v>11.42590286818814</v>
+        <v>37.43436947975658</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.04329080010101194</v>
+        <v>-0.1070747584284177</v>
       </c>
     </row>
     <row r="89">
@@ -1673,13 +1673,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>11.41215197768182</v>
+        <v>37.33094886443832</v>
       </c>
       <c r="C89" t="n">
-        <v>11.41264391029844</v>
+        <v>37.48236131483751</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.0004919326166241689</v>
+        <v>-0.1514124503991923</v>
       </c>
     </row>
     <row r="90">
@@ -1687,13 +1687,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>11.43069488929851</v>
+        <v>37.45724301790386</v>
       </c>
       <c r="C90" t="n">
-        <v>11.44579101777412</v>
+        <v>37.48308797449916</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.01509612847561215</v>
+        <v>-0.02584495659530717</v>
       </c>
     </row>
     <row r="91">
@@ -1701,13 +1701,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>11.57248019473299</v>
+        <v>37.50943174160966</v>
       </c>
       <c r="C91" t="n">
-        <v>11.47015551883627</v>
+        <v>37.47151059238589</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1023246758967158</v>
+        <v>0.0379211492237701</v>
       </c>
     </row>
     <row r="92">
@@ -1715,13 +1715,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>11.67200608842009</v>
+        <v>37.66047569854884</v>
       </c>
       <c r="C92" t="n">
-        <v>11.45053966513012</v>
+        <v>37.38319386982332</v>
       </c>
       <c r="D92" t="n">
-        <v>0.2214664232899697</v>
+        <v>0.2772818287255205</v>
       </c>
     </row>
     <row r="93">
@@ -1729,13 +1729,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>15.40531658746404</v>
+        <v>40.66005415734748</v>
       </c>
       <c r="C93" t="n">
-        <v>15.45422948781399</v>
+        <v>40.69224819964728</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.04891290034994533</v>
+        <v>-0.03219404229979972</v>
       </c>
     </row>
     <row r="94">
@@ -1743,13 +1743,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>15.4183679598945</v>
+        <v>40.68263186048874</v>
       </c>
       <c r="C94" t="n">
-        <v>15.47872629671632</v>
+        <v>40.73469272302454</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.06035833682182634</v>
+        <v>-0.05206086253580366</v>
       </c>
     </row>
     <row r="95">
@@ -1757,13 +1757,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>15.46572458464046</v>
+        <v>40.72191849322694</v>
       </c>
       <c r="C95" t="n">
-        <v>15.54828609766416</v>
+        <v>40.86573084725713</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.0825615130236983</v>
+        <v>-0.1438123540301888</v>
       </c>
     </row>
     <row r="96">
@@ -1771,13 +1771,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>15.50401386108033</v>
+        <v>40.74485885345975</v>
       </c>
       <c r="C96" t="n">
-        <v>15.58823784728546</v>
+        <v>40.86591846550234</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.08422398620513327</v>
+        <v>-0.1210596120425933</v>
       </c>
     </row>
     <row r="97">
@@ -1785,13 +1785,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>15.51044075445927</v>
+        <v>40.74527899304967</v>
       </c>
       <c r="C97" t="n">
-        <v>15.56086281302721</v>
+        <v>40.79577278485466</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.05042205856793913</v>
+        <v>-0.05049379180499614</v>
       </c>
     </row>
     <row r="98">
@@ -1799,13 +1799,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>15.51541577134065</v>
+        <v>40.74888514043803</v>
       </c>
       <c r="C98" t="n">
-        <v>15.57349830139499</v>
+        <v>40.77521559436248</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.05808253005433883</v>
+        <v>-0.02633045392444444</v>
       </c>
     </row>
     <row r="99">
@@ -1813,13 +1813,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>15.54188930479778</v>
+        <v>40.75691538674881</v>
       </c>
       <c r="C99" t="n">
-        <v>15.55054991829031</v>
+        <v>40.85590474475492</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.008660613492532221</v>
+        <v>-0.09898935800611497</v>
       </c>
     </row>
     <row r="100">
@@ -1827,13 +1827,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>15.55794080193259</v>
+        <v>40.75912597600235</v>
       </c>
       <c r="C100" t="n">
-        <v>15.60412260525791</v>
+        <v>40.79943770985797</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.04618180332531452</v>
+        <v>-0.04031173385561715</v>
       </c>
     </row>
     <row r="101">
@@ -1841,13 +1841,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>15.58935372388775</v>
+        <v>40.76664802437665</v>
       </c>
       <c r="C101" t="n">
-        <v>15.59734998355564</v>
+        <v>40.88114509874144</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.007996259667894634</v>
+        <v>-0.1144970743647917</v>
       </c>
     </row>
     <row r="102">
@@ -1855,13 +1855,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>19.51931912604374</v>
+        <v>40.784193641189</v>
       </c>
       <c r="C102" t="n">
-        <v>19.584269700403</v>
+        <v>40.86792224742506</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.06495057435926199</v>
+        <v>-0.0837286062360576</v>
       </c>
     </row>
     <row r="103">
@@ -1869,13 +1869,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>19.52473017108363</v>
+        <v>40.79446711950314</v>
       </c>
       <c r="C103" t="n">
-        <v>19.5634675740021</v>
+        <v>40.7986882652261</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.03873740291847128</v>
+        <v>-0.004221145722965503</v>
       </c>
     </row>
     <row r="104">
@@ -1883,13 +1883,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>19.54631939280918</v>
+        <v>40.8276194063578</v>
       </c>
       <c r="C104" t="n">
-        <v>19.73218521524588</v>
+        <v>40.83794581174794</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.1858658224367034</v>
+        <v>-0.0103264053901384</v>
       </c>
     </row>
     <row r="105">
@@ -1897,13 +1897,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>19.64587027648967</v>
+        <v>40.84719295123948</v>
       </c>
       <c r="C105" t="n">
-        <v>19.70474599916378</v>
+        <v>40.85515651927831</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.0588757226741059</v>
+        <v>-0.007963568038832136</v>
       </c>
     </row>
     <row r="106">
@@ -1911,13 +1911,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>19.64968980953626</v>
+        <v>40.87801670924068</v>
       </c>
       <c r="C106" t="n">
-        <v>19.65583088167379</v>
+        <v>40.88330500967344</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.006141072137523906</v>
+        <v>-0.005288300432766846</v>
       </c>
     </row>
     <row r="107">
@@ -1925,13 +1925,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>19.69475689593588</v>
+        <v>41.55012062901643</v>
       </c>
       <c r="C107" t="n">
-        <v>19.72261605001286</v>
+        <v>41.59743661484205</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.0278591540769817</v>
+        <v>-0.04731598582561247</v>
       </c>
     </row>
     <row r="108">
@@ -1939,13 +1939,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>19.70903808504717</v>
+        <v>41.56579212399659</v>
       </c>
       <c r="C108" t="n">
-        <v>19.72837269428511</v>
+        <v>41.75347704314657</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.01933460923794073</v>
+        <v>-0.1876849191499872</v>
       </c>
     </row>
     <row r="109">
@@ -1953,13 +1953,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>19.73160414392709</v>
+        <v>41.56605660888675</v>
       </c>
       <c r="C109" t="n">
-        <v>19.72571807516151</v>
+        <v>41.68559276839248</v>
       </c>
       <c r="D109" t="n">
-        <v>0.005886068765580177</v>
+        <v>-0.1195361595057278</v>
       </c>
     </row>
     <row r="110">
@@ -1967,13 +1967,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>20.06188332858963</v>
+        <v>41.59263862949954</v>
       </c>
       <c r="C110" t="n">
-        <v>20.18079855884566</v>
+        <v>41.71246245288112</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.1189152302560288</v>
+        <v>-0.11982382338158</v>
       </c>
     </row>
     <row r="111">
@@ -1981,13 +1981,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>20.07097554944997</v>
+        <v>41.59777177492623</v>
       </c>
       <c r="C111" t="n">
-        <v>20.20678108585981</v>
+        <v>41.66512993916063</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.1358055364098405</v>
+        <v>-0.067358164234399</v>
       </c>
     </row>
     <row r="112">
@@ -1995,13 +1995,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>20.07381574564841</v>
+        <v>41.60624444268824</v>
       </c>
       <c r="C112" t="n">
-        <v>20.12848190654706</v>
+        <v>41.71648955011964</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.05466616089864473</v>
+        <v>-0.1102451074314033</v>
       </c>
     </row>
     <row r="113">
@@ -2009,13 +2009,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>20.12203262668194</v>
+        <v>41.62054932008182</v>
       </c>
       <c r="C113" t="n">
-        <v>20.27174881450246</v>
+        <v>41.73569543667157</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.1497161878205162</v>
+        <v>-0.1151461165897487</v>
       </c>
     </row>
     <row r="114">
@@ -2023,13 +2023,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>20.12761000806763</v>
+        <v>41.69888680471538</v>
       </c>
       <c r="C114" t="n">
-        <v>20.21437143455269</v>
+        <v>41.6312884258227</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.08676142648506158</v>
+        <v>0.06759837889267573</v>
       </c>
     </row>
     <row r="115">
@@ -2037,13 +2037,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>20.13426769704367</v>
+        <v>41.8508720849859</v>
       </c>
       <c r="C115" t="n">
-        <v>20.15111990081961</v>
+        <v>41.71258677829481</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.01685220377593311</v>
+        <v>0.1382853066910883</v>
       </c>
     </row>
     <row r="116">
@@ -2051,13 +2051,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>20.13464576591221</v>
+        <v>45.20286017094809</v>
       </c>
       <c r="C116" t="n">
-        <v>20.15042319600899</v>
+        <v>45.35403399638896</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.01577743009677235</v>
+        <v>-0.1511738254408641</v>
       </c>
     </row>
     <row r="117">
@@ -2065,13 +2065,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>20.13506026262814</v>
+        <v>45.23288774416774</v>
       </c>
       <c r="C117" t="n">
-        <v>20.22720729791063</v>
+        <v>45.26376773347936</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.09214703528249402</v>
+        <v>-0.03087998931162161</v>
       </c>
     </row>
     <row r="118">
@@ -2079,13 +2079,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>20.14984808646343</v>
+        <v>45.23571232695357</v>
       </c>
       <c r="C118" t="n">
-        <v>20.18243479891396</v>
+        <v>45.32377529407222</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.0325867124505308</v>
+        <v>-0.08806296711864547</v>
       </c>
     </row>
     <row r="119">
@@ -2093,13 +2093,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>20.17645631960909</v>
+        <v>45.26343979940586</v>
       </c>
       <c r="C119" t="n">
-        <v>20.2439548043759</v>
+        <v>45.32701876256998</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.06749848476681208</v>
+        <v>-0.06357896316412592</v>
       </c>
     </row>
     <row r="120">
@@ -2107,13 +2107,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>20.21087736712215</v>
+        <v>45.26554219412107</v>
       </c>
       <c r="C120" t="n">
-        <v>20.21596642713438</v>
+        <v>45.40499690112924</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.00508906001222087</v>
+        <v>-0.13945470700817</v>
       </c>
     </row>
     <row r="121">
@@ -2121,13 +2121,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>20.22757765693605</v>
+        <v>45.28556612606147</v>
       </c>
       <c r="C121" t="n">
-        <v>20.23573446642723</v>
+        <v>45.34695073330469</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.008156809491179473</v>
+        <v>-0.06138460724321959</v>
       </c>
     </row>
     <row r="122">
@@ -2135,13 +2135,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>20.47571502882309</v>
+        <v>45.29325164289632</v>
       </c>
       <c r="C122" t="n">
-        <v>20.5930938182468</v>
+        <v>45.36096300064249</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.1173787894237037</v>
+        <v>-0.06771135774617676</v>
       </c>
     </row>
     <row r="123">
@@ -2149,13 +2149,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>20.47619728070169</v>
+        <v>45.29448948133653</v>
       </c>
       <c r="C123" t="n">
-        <v>20.522612449025</v>
+        <v>45.34287893621264</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.0464151683233176</v>
+        <v>-0.04838945487611568</v>
       </c>
     </row>
     <row r="124">
@@ -2163,13 +2163,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>20.49681300779721</v>
+        <v>45.29887295730213</v>
       </c>
       <c r="C124" t="n">
-        <v>20.50279575102562</v>
+        <v>45.47120858710726</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.00598274322840453</v>
+        <v>-0.1723356298051328</v>
       </c>
     </row>
     <row r="125">
@@ -2177,13 +2177,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>20.50909683105789</v>
+        <v>45.30992058328994</v>
       </c>
       <c r="C125" t="n">
-        <v>20.61190586301503</v>
+        <v>45.40699172381944</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.1028090319571433</v>
+        <v>-0.0970711405294935</v>
       </c>
     </row>
     <row r="126">
@@ -2191,13 +2191,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>20.5215257849589</v>
+        <v>45.33184348120385</v>
       </c>
       <c r="C126" t="n">
-        <v>20.67689490250982</v>
+        <v>45.39268242719492</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.1553691175509115</v>
+        <v>-0.06083894599107253</v>
       </c>
     </row>
     <row r="127">
@@ -2205,13 +2205,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>20.52804407387479</v>
+        <v>45.36385694607353</v>
       </c>
       <c r="C127" t="n">
-        <v>20.58383743195942</v>
+        <v>45.45501848956686</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.05579335808463171</v>
+        <v>-0.09116154349332817</v>
       </c>
     </row>
     <row r="128">
@@ -2219,13 +2219,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>20.53863014678318</v>
+        <v>45.39209840931544</v>
       </c>
       <c r="C128" t="n">
-        <v>20.68471927255158</v>
+        <v>45.44517635178019</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.1460891257684018</v>
+        <v>-0.05307794246475339</v>
       </c>
     </row>
     <row r="129">
@@ -2233,13 +2233,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>20.54256556391812</v>
+        <v>45.40297664034774</v>
       </c>
       <c r="C129" t="n">
-        <v>20.5720185216525</v>
+        <v>45.4482615944049</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.02945295773437451</v>
+        <v>-0.04528495405716626</v>
       </c>
     </row>
     <row r="130">
@@ -2247,13 +2247,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>20.54694165992665</v>
+        <v>45.46188364220878</v>
       </c>
       <c r="C130" t="n">
-        <v>20.6507860270041</v>
+        <v>45.50380124678479</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.1038443670774463</v>
+        <v>-0.0419176045760139</v>
       </c>
     </row>
     <row r="131">
@@ -2261,13 +2261,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>20.55165689873028</v>
+        <v>47.17593134465932</v>
       </c>
       <c r="C131" t="n">
-        <v>20.54830708377824</v>
+        <v>47.34725341942466</v>
       </c>
       <c r="D131" t="n">
-        <v>0.003349814952038344</v>
+        <v>-0.1713220747653423</v>
       </c>
     </row>
     <row r="132">
@@ -2275,13 +2275,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>20.61408624348382</v>
+        <v>47.18843441421569</v>
       </c>
       <c r="C132" t="n">
-        <v>20.66237657425876</v>
+        <v>47.24792218542913</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.04829033077493605</v>
+        <v>-0.05948777121344051</v>
       </c>
     </row>
     <row r="133">
@@ -2289,13 +2289,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>20.64279373913027</v>
+        <v>47.19323999850815</v>
       </c>
       <c r="C133" t="n">
-        <v>20.65616703042983</v>
+        <v>47.38109769368214</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.01337329129956188</v>
+        <v>-0.1878576951739888</v>
       </c>
     </row>
     <row r="134">
@@ -2303,13 +2303,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>22.51441372962077</v>
+        <v>47.21963351570028</v>
       </c>
       <c r="C134" t="n">
-        <v>22.59179609252556</v>
+        <v>47.23529207693738</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.07738236290479605</v>
+        <v>-0.01565856123710319</v>
       </c>
     </row>
     <row r="135">
@@ -2317,13 +2317,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>22.52058414189297</v>
+        <v>47.23130720998535</v>
       </c>
       <c r="C135" t="n">
-        <v>22.59192800283983</v>
+        <v>47.32737785208757</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.07134386094686107</v>
+        <v>-0.09607064210221239</v>
       </c>
     </row>
     <row r="136">
@@ -2331,13 +2331,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>22.52953987226409</v>
+        <v>47.31181033621548</v>
       </c>
       <c r="C136" t="n">
-        <v>22.70194402258537</v>
+        <v>47.33957976703192</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.172404150321281</v>
+        <v>-0.02776943081644134</v>
       </c>
     </row>
     <row r="137">
@@ -2345,13 +2345,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>22.54623495273218</v>
+        <v>48.61710607391728</v>
       </c>
       <c r="C137" t="n">
-        <v>22.61316061160459</v>
+        <v>48.62959570233005</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.06692565887240676</v>
+        <v>-0.0124896284127658</v>
       </c>
     </row>
     <row r="138">
@@ -2359,13 +2359,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>22.55656560645746</v>
+        <v>48.62100793732332</v>
       </c>
       <c r="C138" t="n">
-        <v>22.66125977320274</v>
+        <v>48.79272531510545</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.1046941667452757</v>
+        <v>-0.1717173777821301</v>
       </c>
     </row>
     <row r="139">
@@ -2373,13 +2373,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>22.60069639782123</v>
+        <v>48.6218707252434</v>
       </c>
       <c r="C139" t="n">
-        <v>22.64001366636512</v>
+        <v>48.65832026319899</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.03931726854388273</v>
+        <v>-0.03644953795558337</v>
       </c>
     </row>
     <row r="140">
@@ -2387,13 +2387,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>22.63664790802691</v>
+        <v>48.63043195945242</v>
       </c>
       <c r="C140" t="n">
-        <v>22.70849247095279</v>
+        <v>48.75637055416851</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.07184456292587882</v>
+        <v>-0.1259385947160894</v>
       </c>
     </row>
     <row r="141">
@@ -2401,13 +2401,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>22.64200402528837</v>
+        <v>48.67209350186194</v>
       </c>
       <c r="C141" t="n">
-        <v>22.66299437830326</v>
+        <v>48.67836610955724</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.02099035301489494</v>
+        <v>-0.006272607695294141</v>
       </c>
     </row>
     <row r="142">
@@ -2415,13 +2415,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>23.66723972848193</v>
+        <v>48.67793603207573</v>
       </c>
       <c r="C142" t="n">
-        <v>23.80222380034795</v>
+        <v>48.78024969522694</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.1349840718660182</v>
+        <v>-0.1023136631512145</v>
       </c>
     </row>
     <row r="143">
@@ -2429,13 +2429,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>23.70576655628042</v>
+        <v>48.6878739376419</v>
       </c>
       <c r="C143" t="n">
-        <v>23.79636221914332</v>
+        <v>48.83204997694814</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.09059566286290277</v>
+        <v>-0.1441760393062381</v>
       </c>
     </row>
     <row r="144">
@@ -2443,13 +2443,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>23.71509570104571</v>
+        <v>48.72429254864166</v>
       </c>
       <c r="C144" t="n">
-        <v>23.81600354789308</v>
+        <v>48.7914311873992</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.1009078468473668</v>
+        <v>-0.06713863875754811</v>
       </c>
     </row>
     <row r="145">
@@ -2457,13 +2457,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>23.71639499614056</v>
+        <v>48.78063400152516</v>
       </c>
       <c r="C145" t="n">
-        <v>23.75584712902175</v>
+        <v>48.81487611331297</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.0394521328811912</v>
+        <v>-0.03424211178780467</v>
       </c>
     </row>
     <row r="146">
@@ -2471,13 +2471,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>23.74276660296857</v>
+        <v>48.82539832154112</v>
       </c>
       <c r="C146" t="n">
-        <v>23.81815243534094</v>
+        <v>48.8344658139252</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.07538583237237262</v>
+        <v>-0.009067492384076559</v>
       </c>
     </row>
     <row r="147">
@@ -2485,13 +2485,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>23.76096111822656</v>
+        <v>48.87529956978221</v>
       </c>
       <c r="C147" t="n">
-        <v>23.81647593123777</v>
+        <v>48.78655426304761</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.05551481301121441</v>
+        <v>0.08874530673459446</v>
       </c>
     </row>
     <row r="148">
@@ -2499,13 +2499,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>23.77016392899164</v>
+        <v>48.89336868470895</v>
       </c>
       <c r="C148" t="n">
-        <v>23.77897011718183</v>
+        <v>48.83177685365915</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.008806188190185082</v>
+        <v>0.06159183104979604</v>
       </c>
     </row>
     <row r="149">
@@ -2513,13 +2513,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>23.78855999318304</v>
+        <v>49.10876109666556</v>
       </c>
       <c r="C149" t="n">
-        <v>23.82224499693692</v>
+        <v>49.15788953146735</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.03368500375387384</v>
+        <v>-0.04912843480178708</v>
       </c>
     </row>
     <row r="150">
@@ -2527,13 +2527,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>24.15055262042825</v>
+        <v>49.11057478675743</v>
       </c>
       <c r="C150" t="n">
-        <v>24.25025454159361</v>
+        <v>49.13813190274072</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.0997019211653658</v>
+        <v>-0.02755711598329214</v>
       </c>
     </row>
     <row r="151">
@@ -2541,13 +2541,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>24.16869333023912</v>
+        <v>49.15415450400508</v>
       </c>
       <c r="C151" t="n">
-        <v>24.30864952798461</v>
+        <v>49.19475761503714</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.1399561977454944</v>
+        <v>-0.04060311103205549</v>
       </c>
     </row>
     <row r="152">
@@ -2555,13 +2555,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>24.17613253286861</v>
+        <v>49.15527204183923</v>
       </c>
       <c r="C152" t="n">
-        <v>24.28476553139642</v>
+        <v>49.17812743625691</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.1086329985278169</v>
+        <v>-0.02285539441767526</v>
       </c>
     </row>
     <row r="153">
@@ -2569,13 +2569,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>24.18204534728842</v>
+        <v>49.1568393219704</v>
       </c>
       <c r="C153" t="n">
-        <v>24.22958527479817</v>
+        <v>49.27591246728299</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.04753992750975655</v>
+        <v>-0.1190731453125906</v>
       </c>
     </row>
     <row r="154">
@@ -2583,13 +2583,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>24.19485960188455</v>
+        <v>49.16714167835643</v>
       </c>
       <c r="C154" t="n">
-        <v>24.22160909764231</v>
+        <v>49.23111628298359</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.02674949575776253</v>
+        <v>-0.06397460462715543</v>
       </c>
     </row>
     <row r="155">
@@ -2597,13 +2597,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>24.20528868542973</v>
+        <v>49.1875102402641</v>
       </c>
       <c r="C155" t="n">
-        <v>24.26466797811739</v>
+        <v>49.26445933900961</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.05937929268765529</v>
+        <v>-0.07694909874550859</v>
       </c>
     </row>
     <row r="156">
@@ -2611,13 +2611,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>24.22418876630835</v>
+        <v>49.20240539485379</v>
       </c>
       <c r="C156" t="n">
-        <v>24.28132927326792</v>
+        <v>49.31279380281745</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.0571405069595663</v>
+        <v>-0.1103884079636615</v>
       </c>
     </row>
     <row r="157">
@@ -2625,13 +2625,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>24.23987172376734</v>
+        <v>49.22660399849949</v>
       </c>
       <c r="C157" t="n">
-        <v>24.27322075073893</v>
+        <v>49.31480362032637</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.03334902697158881</v>
+        <v>-0.08819962182688101</v>
       </c>
     </row>
     <row r="158">
@@ -2639,13 +2639,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>24.2400393365024</v>
+        <v>50.25330835822123</v>
       </c>
       <c r="C158" t="n">
-        <v>24.2558972766437</v>
+        <v>50.47544142600594</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.0158579401413057</v>
+        <v>-0.2221330677847106</v>
       </c>
     </row>
     <row r="159">
@@ -2653,13 +2653,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>24.26045398078334</v>
+        <v>50.2566516171949</v>
       </c>
       <c r="C159" t="n">
-        <v>24.26423332345456</v>
+        <v>50.35076324775518</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.003779342671215602</v>
+        <v>-0.0941116305602705</v>
       </c>
     </row>
     <row r="160">
@@ -2667,13 +2667,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>24.3186350559419</v>
+        <v>50.34841946010759</v>
       </c>
       <c r="C160" t="n">
-        <v>24.34077202108831</v>
+        <v>50.36335381064323</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.02213696514641228</v>
+        <v>-0.01493435053563275</v>
       </c>
     </row>
     <row r="161">
@@ -2681,13 +2681,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>24.33798425732999</v>
+        <v>50.39191069112326</v>
       </c>
       <c r="C161" t="n">
-        <v>24.3443043547883</v>
+        <v>50.41923509508318</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.006320097458313967</v>
+        <v>-0.02732440395992342</v>
       </c>
     </row>
     <row r="162">
@@ -2695,13 +2695,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>24.34301253814613</v>
+        <v>50.43426008290373</v>
       </c>
       <c r="C162" t="n">
-        <v>24.27652142724019</v>
+        <v>50.45329146798459</v>
       </c>
       <c r="D162" t="n">
-        <v>0.06649111090593607</v>
+        <v>-0.01903138508086499</v>
       </c>
     </row>
     <row r="163">
@@ -2709,13 +2709,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>26.78623243879953</v>
+        <v>53.84717437923695</v>
       </c>
       <c r="C163" t="n">
-        <v>26.92505940061081</v>
+        <v>53.9024541507031</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.1388269618112723</v>
+        <v>-0.0552797714661537</v>
       </c>
     </row>
     <row r="164">
@@ -2723,13 +2723,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>26.79026371791605</v>
+        <v>53.87171774398645</v>
       </c>
       <c r="C164" t="n">
-        <v>26.80227883935334</v>
+        <v>53.96356790441997</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.01201512143729033</v>
+        <v>-0.09185016043351624</v>
       </c>
     </row>
     <row r="165">
@@ -2737,13 +2737,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>26.81567417974718</v>
+        <v>53.87952616724435</v>
       </c>
       <c r="C165" t="n">
-        <v>26.83192921053522</v>
+        <v>53.96508267820374</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.01625503078804158</v>
+        <v>-0.08555651095939254</v>
       </c>
     </row>
     <row r="166">
@@ -2751,13 +2751,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>26.8187407682295</v>
+        <v>53.88323347740115</v>
       </c>
       <c r="C166" t="n">
-        <v>26.96802656170651</v>
+        <v>53.9856918297785</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.1492857934770022</v>
+        <v>-0.1024583523773472</v>
       </c>
     </row>
     <row r="167">
@@ -2765,13 +2765,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>26.81912333568337</v>
+        <v>53.88697649560567</v>
       </c>
       <c r="C167" t="n">
-        <v>26.96830550939363</v>
+        <v>54.04555657242077</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.1491821737102583</v>
+        <v>-0.158580076815106</v>
       </c>
     </row>
     <row r="168">
@@ -2779,13 +2779,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>26.82169252683059</v>
+        <v>53.89180985831949</v>
       </c>
       <c r="C168" t="n">
-        <v>26.86684145475208</v>
+        <v>54.04009959728061</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.04514892792148473</v>
+        <v>-0.1482897389611182</v>
       </c>
     </row>
     <row r="169">
@@ -2793,13 +2793,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>26.83214394245781</v>
+        <v>53.89421236634761</v>
       </c>
       <c r="C169" t="n">
-        <v>26.95156769695243</v>
+        <v>53.93645991152032</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.1194237544946155</v>
+        <v>-0.04224754517271379</v>
       </c>
     </row>
     <row r="170">
@@ -2807,13 +2807,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>26.83835108047011</v>
+        <v>53.89996436672411</v>
       </c>
       <c r="C170" t="n">
-        <v>26.84065983228261</v>
+        <v>53.90851476229871</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.002308751812503118</v>
+        <v>-0.008550395574594916</v>
       </c>
     </row>
     <row r="171">
@@ -2821,13 +2821,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>26.85449985760508</v>
+        <v>53.91256026305989</v>
       </c>
       <c r="C171" t="n">
-        <v>26.96281085160545</v>
+        <v>53.97479333737329</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.108310994000373</v>
+        <v>-0.0622330743133972</v>
       </c>
     </row>
     <row r="172">
@@ -2835,13 +2835,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>26.88339792015357</v>
+        <v>53.92184158521487</v>
       </c>
       <c r="C172" t="n">
-        <v>26.98420121061836</v>
+        <v>53.96522650065991</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.1008032904647926</v>
+        <v>-0.04338491544503853</v>
       </c>
     </row>
     <row r="173">
@@ -2849,13 +2849,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>26.88508310215862</v>
+        <v>53.93729580955606</v>
       </c>
       <c r="C173" t="n">
-        <v>26.95083532316282</v>
+        <v>53.94220431016096</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.06575222100420319</v>
+        <v>-0.004908500604898336</v>
       </c>
     </row>
     <row r="174">
@@ -2863,13 +2863,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>26.8877506135636</v>
+        <v>53.94564278757296</v>
       </c>
       <c r="C174" t="n">
-        <v>26.93609020714468</v>
+        <v>53.97232728175806</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.04833959358108686</v>
+        <v>-0.02668449418509766</v>
       </c>
     </row>
     <row r="175">
@@ -2877,13 +2877,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>26.90079563229133</v>
+        <v>54.64779115133192</v>
       </c>
       <c r="C175" t="n">
-        <v>26.95291529541542</v>
+        <v>54.79465258647551</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.05211966312408478</v>
+        <v>-0.1468614351435846</v>
       </c>
     </row>
     <row r="176">
@@ -2891,13 +2891,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>26.91507366894978</v>
+        <v>54.6562512645714</v>
       </c>
       <c r="C176" t="n">
-        <v>26.94186154314225</v>
+        <v>54.69584698182287</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.0267878741924612</v>
+        <v>-0.03959571725147271</v>
       </c>
     </row>
     <row r="177">
@@ -2905,13 +2905,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>27.38136485353939</v>
+        <v>54.65625629224003</v>
       </c>
       <c r="C177" t="n">
-        <v>26.94609754255115</v>
+        <v>54.66181343560411</v>
       </c>
       <c r="D177" t="n">
-        <v>0.4352673109882375</v>
+        <v>-0.005557143364079309</v>
       </c>
     </row>
     <row r="178">
@@ -2919,13 +2919,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>30.12983246526577</v>
+        <v>54.66386728328752</v>
       </c>
       <c r="C178" t="n">
-        <v>30.2590526214919</v>
+        <v>54.66970916701172</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.1292201562261255</v>
+        <v>-0.00584188372420158</v>
       </c>
     </row>
     <row r="179">
@@ -2933,13 +2933,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>30.15664088608662</v>
+        <v>54.68130505447738</v>
       </c>
       <c r="C179" t="n">
-        <v>30.33029767785131</v>
+        <v>54.79149164838633</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.1736567917646852</v>
+        <v>-0.1101865939089421</v>
       </c>
     </row>
     <row r="180">
@@ -2947,13 +2947,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>30.20306282533371</v>
+        <v>54.68657127459297</v>
       </c>
       <c r="C180" t="n">
-        <v>30.27436855746967</v>
+        <v>54.77828548270126</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.07130573213596492</v>
+        <v>-0.09171420810828579</v>
       </c>
     </row>
     <row r="181">
@@ -2961,13 +2961,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>30.23996085271291</v>
+        <v>54.70110459244458</v>
       </c>
       <c r="C181" t="n">
-        <v>30.31143089200798</v>
+        <v>54.70841930315905</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.07147003929507179</v>
+        <v>-0.00731471071447487</v>
       </c>
     </row>
     <row r="182">
@@ -2975,13 +2975,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>30.24275929453406</v>
+        <v>58.27060217135297</v>
       </c>
       <c r="C182" t="n">
-        <v>30.29944561353101</v>
+        <v>58.33573085175685</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.05668631899694176</v>
+        <v>-0.06512868040388042</v>
       </c>
     </row>
     <row r="183">
@@ -2989,13 +2989,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>30.49146936366613</v>
+        <v>58.28212722714562</v>
       </c>
       <c r="C183" t="n">
-        <v>30.51957416519001</v>
+        <v>58.32927405494836</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.02810480152387385</v>
+        <v>-0.0471468278027416</v>
       </c>
     </row>
     <row r="184">
@@ -3003,13 +3003,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>30.50012975906638</v>
+        <v>58.33809849093247</v>
       </c>
       <c r="C184" t="n">
-        <v>30.58301394602302</v>
+        <v>58.44745024712559</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.08288418695664035</v>
+        <v>-0.1093517561931208</v>
       </c>
     </row>
     <row r="185">
@@ -3017,13 +3017,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>30.5187180177935</v>
+        <v>58.34298347274057</v>
       </c>
       <c r="C185" t="n">
-        <v>30.52384447136882</v>
+        <v>58.46838934751162</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.005126453575321932</v>
+        <v>-0.1254058747710545</v>
       </c>
     </row>
     <row r="186">
@@ -3031,13 +3031,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>30.53226857602666</v>
+        <v>58.39239386112772</v>
       </c>
       <c r="C186" t="n">
-        <v>30.6218087736523</v>
+        <v>58.42697448705012</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.08954019762564513</v>
+        <v>-0.03458062592240907</v>
       </c>
     </row>
     <row r="187">
@@ -3045,13 +3045,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>30.53247997535398</v>
+        <v>58.3982890668829</v>
       </c>
       <c r="C187" t="n">
-        <v>30.67560689562164</v>
+        <v>58.44138692821716</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.1431269202676546</v>
+        <v>-0.04309786133426741</v>
       </c>
     </row>
     <row r="188">
@@ -3059,13 +3059,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>30.54458893636244</v>
+        <v>58.4375250680604</v>
       </c>
       <c r="C188" t="n">
-        <v>30.58994709838442</v>
+        <v>58.48021821084367</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.04535816202198362</v>
+        <v>-0.0426931427832784</v>
       </c>
     </row>
     <row r="189">
@@ -3073,13 +3073,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>30.54739892321002</v>
+        <v>58.47628715104514</v>
       </c>
       <c r="C189" t="n">
-        <v>30.6127197655822</v>
+        <v>58.47772621120466</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.06532084237217362</v>
+        <v>-0.001439060159519556</v>
       </c>
     </row>
     <row r="190">
@@ -3087,13 +3087,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>30.54896680983506</v>
+        <v>60.89459914450927</v>
       </c>
       <c r="C190" t="n">
-        <v>30.6455191039805</v>
+        <v>60.99180381783653</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.09655229414543953</v>
+        <v>-0.09720467332726201</v>
       </c>
     </row>
     <row r="191">
@@ -3101,13 +3101,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>30.56528958118477</v>
+        <v>60.90342042019245</v>
       </c>
       <c r="C191" t="n">
-        <v>30.64986505496102</v>
+        <v>60.90358589234938</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.08457547377625119</v>
+        <v>-0.0001654721569295248</v>
       </c>
     </row>
     <row r="192">
@@ -3115,13 +3115,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>30.59104620638552</v>
+        <v>60.90406944627651</v>
       </c>
       <c r="C192" t="n">
-        <v>30.62704100339177</v>
+        <v>61.0647417056374</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.03599479700624642</v>
+        <v>-0.1606722593608865</v>
       </c>
     </row>
     <row r="193">
@@ -3129,13 +3129,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>30.61372536078923</v>
+        <v>60.91248896361743</v>
       </c>
       <c r="C193" t="n">
-        <v>30.63340992231514</v>
+        <v>60.971557029009</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.01968456152591003</v>
+        <v>-0.05906806539157117</v>
       </c>
     </row>
     <row r="194">
@@ -3143,13 +3143,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>30.62187986568715</v>
+        <v>60.91412715449385</v>
       </c>
       <c r="C194" t="n">
-        <v>30.68530155181868</v>
+        <v>60.97423428425319</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.06342168613153021</v>
+        <v>-0.06010712975933785</v>
       </c>
     </row>
     <row r="195">
@@ -3157,13 +3157,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>30.66092840994288</v>
+        <v>60.92162552985187</v>
       </c>
       <c r="C195" t="n">
-        <v>30.68340172875363</v>
+        <v>61.04609787379439</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.02247331881074643</v>
+        <v>-0.1244723439425286</v>
       </c>
     </row>
     <row r="196">
@@ -3171,13 +3171,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>30.66345619225979</v>
+        <v>60.92803246563941</v>
       </c>
       <c r="C196" t="n">
-        <v>30.69433910797821</v>
+        <v>60.96732728872199</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.03088291571842561</v>
+        <v>-0.03929482308257803</v>
       </c>
     </row>
     <row r="197">
@@ -3185,13 +3185,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>30.84600150606862</v>
+        <v>60.9864834447028</v>
       </c>
       <c r="C197" t="n">
-        <v>30.64616567609368</v>
+        <v>61.06420945082128</v>
       </c>
       <c r="D197" t="n">
-        <v>0.1998358299749441</v>
+        <v>-0.07772600611848191</v>
       </c>
     </row>
     <row r="198">
@@ -3199,13 +3199,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>33.37170477086718</v>
+        <v>61.00642410130274</v>
       </c>
       <c r="C198" t="n">
-        <v>33.46888713378497</v>
+        <v>61.07798045395023</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.09718236291779903</v>
+        <v>-0.07155635264748383</v>
       </c>
     </row>
     <row r="199">
@@ -3213,13 +3213,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>33.37323930212449</v>
+        <v>61.01342583878186</v>
       </c>
       <c r="C199" t="n">
-        <v>33.52284789837687</v>
+        <v>61.06300698456928</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.149608596252385</v>
+        <v>-0.04958114578742823</v>
       </c>
     </row>
     <row r="200">
@@ -3227,13 +3227,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>33.38779078336596</v>
+        <v>61.02138424798884</v>
       </c>
       <c r="C200" t="n">
-        <v>33.54216343578344</v>
+        <v>61.03843105666657</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.1543726524174787</v>
+        <v>-0.01704680867773334</v>
       </c>
     </row>
     <row r="201">
@@ -3241,13 +3241,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>33.39207581025845</v>
+        <v>61.05818940988113</v>
       </c>
       <c r="C201" t="n">
-        <v>33.48288536334842</v>
+        <v>61.09092870637184</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.09080955308996863</v>
+        <v>-0.0327392964907105</v>
       </c>
     </row>
     <row r="202">
@@ -3255,13 +3255,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>33.39622756097722</v>
+        <v>69.81063622562887</v>
       </c>
       <c r="C202" t="n">
-        <v>33.53770222417146</v>
+        <v>69.88231180831058</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.141474663194245</v>
+        <v>-0.07167558268170637</v>
       </c>
     </row>
     <row r="203">
@@ -3269,13 +3269,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>33.40149599970179</v>
+        <v>69.82307962329079</v>
       </c>
       <c r="C203" t="n">
-        <v>33.52408434054663</v>
+        <v>69.91167291347035</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.1225883408448354</v>
+        <v>-0.08859329017955986</v>
       </c>
     </row>
     <row r="204">
@@ -3283,13 +3283,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>33.4031700495802</v>
+        <v>69.82611450118755</v>
       </c>
       <c r="C204" t="n">
-        <v>33.51791450310375</v>
+        <v>69.96352099435336</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.1147444535235493</v>
+        <v>-0.1374064931658125</v>
       </c>
     </row>
     <row r="205">
@@ -3297,13 +3297,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>33.41293477978702</v>
+        <v>69.8347005193944</v>
       </c>
       <c r="C205" t="n">
-        <v>33.47785547914068</v>
+        <v>69.84863400627398</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.06492069935365663</v>
+        <v>-0.01393348687957996</v>
       </c>
     </row>
     <row r="206">
@@ -3311,13 +3311,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>33.43000618617012</v>
+        <v>69.86136035787767</v>
       </c>
       <c r="C206" t="n">
-        <v>33.48399091536673</v>
+        <v>69.99031412179117</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.05398472919660691</v>
+        <v>-0.1289537639135006</v>
       </c>
     </row>
     <row r="207">
@@ -3325,13 +3325,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>33.45848502853733</v>
+        <v>69.87712244395571</v>
       </c>
       <c r="C207" t="n">
-        <v>33.48483123106634</v>
+        <v>69.9139068746636</v>
       </c>
       <c r="D207" t="n">
-        <v>-0.02634620252900532</v>
+        <v>-0.03678443070788262</v>
       </c>
     </row>
     <row r="208">
@@ -3339,13 +3339,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>33.4738338450157</v>
+        <v>69.87768929192573</v>
       </c>
       <c r="C208" t="n">
-        <v>33.49871905592683</v>
+        <v>69.94889999596863</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.02488521091112972</v>
+        <v>-0.07121070404289753</v>
       </c>
     </row>
     <row r="209">
@@ -3353,13 +3353,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>33.48982407163405</v>
+        <v>69.87793209286971</v>
       </c>
       <c r="C209" t="n">
-        <v>33.50104589005429</v>
+        <v>69.97336415056871</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.01122181842023195</v>
+        <v>-0.09543205769899998</v>
       </c>
     </row>
     <row r="210">
@@ -3367,13 +3367,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>33.57913313610234</v>
+        <v>69.89615242216806</v>
       </c>
       <c r="C210" t="n">
-        <v>33.50958906071966</v>
+        <v>69.90259876103154</v>
       </c>
       <c r="D210" t="n">
-        <v>0.06954407538267304</v>
+        <v>-0.006446338863483447</v>
       </c>
     </row>
     <row r="211">
@@ -3381,13 +3381,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>33.58155289450962</v>
+        <v>69.89788999937635</v>
       </c>
       <c r="C211" t="n">
-        <v>33.53551207978437</v>
+        <v>69.97963122126227</v>
       </c>
       <c r="D211" t="n">
-        <v>0.04604081472525223</v>
+        <v>-0.08174122188592037</v>
       </c>
     </row>
     <row r="212">
@@ -3395,13 +3395,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>34.27195808929555</v>
+        <v>69.92324370254083</v>
       </c>
       <c r="C212" t="n">
-        <v>34.39096667541535</v>
+        <v>69.97557448049048</v>
       </c>
       <c r="D212" t="n">
-        <v>-0.1190085861197971</v>
+        <v>-0.05233077794964913</v>
       </c>
     </row>
     <row r="213">
@@ -3409,13 +3409,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>34.29332297035202</v>
+        <v>69.94095118852687</v>
       </c>
       <c r="C213" t="n">
-        <v>34.42088812438156</v>
+        <v>70.00227313545412</v>
       </c>
       <c r="D213" t="n">
-        <v>-0.127565154029547</v>
+        <v>-0.06132194692725079</v>
       </c>
     </row>
     <row r="214">
@@ -3423,13 +3423,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>34.29380794449796</v>
+        <v>69.97221433948113</v>
       </c>
       <c r="C214" t="n">
-        <v>34.48319186621435</v>
+        <v>69.97701253187088</v>
       </c>
       <c r="D214" t="n">
-        <v>-0.1893839217163915</v>
+        <v>-0.00479819238975665</v>
       </c>
     </row>
     <row r="215">
@@ -3437,13 +3437,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>34.32085890408099</v>
+        <v>70.39311947084609</v>
       </c>
       <c r="C215" t="n">
-        <v>34.43120867275415</v>
+        <v>70.01221184626421</v>
       </c>
       <c r="D215" t="n">
-        <v>-0.1103497686731671</v>
+        <v>0.3809076245818801</v>
       </c>
     </row>
     <row r="216">
@@ -3451,13 +3451,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>34.3426248587762</v>
+        <v>70.83229412495645</v>
       </c>
       <c r="C216" t="n">
-        <v>34.38893025677184</v>
+        <v>70.90764183379719</v>
       </c>
       <c r="D216" t="n">
-        <v>-0.04630539799563849</v>
+        <v>-0.07534770884073794</v>
       </c>
     </row>
     <row r="217">
@@ -3465,13 +3465,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>34.36088929714295</v>
+        <v>70.83488873750169</v>
       </c>
       <c r="C217" t="n">
-        <v>34.38260075897195</v>
+        <v>70.89627160335695</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.02171146182899264</v>
+        <v>-0.06138286585526487</v>
       </c>
     </row>
     <row r="218">
@@ -3479,13 +3479,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>34.36361977637005</v>
+        <v>70.869932396588</v>
       </c>
       <c r="C218" t="n">
-        <v>34.45708300193274</v>
+        <v>70.94453786830269</v>
       </c>
       <c r="D218" t="n">
-        <v>-0.0934632255626866</v>
+        <v>-0.07460547171469045</v>
       </c>
     </row>
     <row r="219">
@@ -3493,13 +3493,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>34.36907349324878</v>
+        <v>70.88517858192</v>
       </c>
       <c r="C219" t="n">
-        <v>34.44052452199776</v>
+        <v>70.98554278861003</v>
       </c>
       <c r="D219" t="n">
-        <v>-0.07145102874898157</v>
+        <v>-0.1003642066900312</v>
       </c>
     </row>
     <row r="220">
@@ -3507,13 +3507,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>34.37049802207539</v>
+        <v>70.89164730635164</v>
       </c>
       <c r="C220" t="n">
-        <v>34.41727163934133</v>
+        <v>70.98657753735129</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.04677361726594143</v>
+        <v>-0.09493023099965114</v>
       </c>
     </row>
     <row r="221">
@@ -3521,13 +3521,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>34.37201153399243</v>
+        <v>70.91883988696222</v>
       </c>
       <c r="C221" t="n">
-        <v>34.37849896545781</v>
+        <v>70.95090655612132</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.006487431465373561</v>
+        <v>-0.03206666915910716</v>
       </c>
     </row>
     <row r="222">
@@ -3535,13 +3535,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>34.37214076668752</v>
+        <v>70.9277243235253</v>
       </c>
       <c r="C222" t="n">
-        <v>34.55592762407744</v>
+        <v>71.03106915190659</v>
       </c>
       <c r="D222" t="n">
-        <v>-0.1837868573899257</v>
+        <v>-0.1033448283812959</v>
       </c>
     </row>
     <row r="223">
@@ -3549,13 +3549,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>34.37938239501869</v>
+        <v>70.93963600102303</v>
       </c>
       <c r="C223" t="n">
-        <v>34.41631608748486</v>
+        <v>71.02428782180633</v>
       </c>
       <c r="D223" t="n">
-        <v>-0.03693369246617095</v>
+        <v>-0.08465182078329292</v>
       </c>
     </row>
     <row r="224">
@@ -3563,13 +3563,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>34.38090198653587</v>
+        <v>70.94176326628661</v>
       </c>
       <c r="C224" t="n">
-        <v>34.38306030699457</v>
+        <v>71.00829834275814</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.002158320458704566</v>
+        <v>-0.06653507647152423</v>
       </c>
     </row>
     <row r="225">
@@ -3577,13 +3577,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>34.39879789103519</v>
+        <v>70.94668724739223</v>
       </c>
       <c r="C225" t="n">
-        <v>34.4781249806725</v>
+        <v>70.98328562053047</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.07932708963731727</v>
+        <v>-0.03659837313823289</v>
       </c>
     </row>
     <row r="226">
@@ -3591,13 +3591,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>34.41214871046939</v>
+        <v>70.96042599745459</v>
       </c>
       <c r="C226" t="n">
-        <v>34.56599822491316</v>
+        <v>71.03057878835371</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.1538495144437704</v>
+        <v>-0.0701527908991153</v>
       </c>
     </row>
     <row r="227">
@@ -3605,13 +3605,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>34.41779810174383</v>
+        <v>70.9660719820546</v>
       </c>
       <c r="C227" t="n">
-        <v>34.54245916670737</v>
+        <v>71.00331818474942</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.12466106496354</v>
+        <v>-0.03724620269481704</v>
       </c>
     </row>
     <row r="228">
@@ -3619,13 +3619,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>34.41802552684997</v>
+        <v>70.9737522193644</v>
       </c>
       <c r="C228" t="n">
-        <v>34.57525535579437</v>
+        <v>70.99758062594672</v>
       </c>
       <c r="D228" t="n">
-        <v>-0.1572298289444021</v>
+        <v>-0.0238284065823251</v>
       </c>
     </row>
     <row r="229">
@@ -3633,13 +3633,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>34.42122746226362</v>
+        <v>71.36264206540876</v>
       </c>
       <c r="C229" t="n">
-        <v>34.42287658125822</v>
+        <v>71.03675288136421</v>
       </c>
       <c r="D229" t="n">
-        <v>-0.001649118994599519</v>
+        <v>0.3258891840445557</v>
       </c>
     </row>
     <row r="230">
@@ -3647,13 +3647,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>34.42522731569747</v>
+        <v>73.46810445608799</v>
       </c>
       <c r="C230" t="n">
-        <v>34.4488544461834</v>
+        <v>73.53460873014708</v>
       </c>
       <c r="D230" t="n">
-        <v>-0.02362713048593434</v>
+        <v>-0.06650427405909909</v>
       </c>
     </row>
     <row r="231">
@@ -3661,13 +3661,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>34.44130438473665</v>
+        <v>73.51488217252421</v>
       </c>
       <c r="C231" t="n">
-        <v>34.4601990773703</v>
+        <v>73.54749240669399</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.01889469263364418</v>
+        <v>-0.03261023416978048</v>
       </c>
     </row>
     <row r="232">
@@ -3675,13 +3675,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>34.44980456760734</v>
+        <v>73.51759307749042</v>
       </c>
       <c r="C232" t="n">
-        <v>34.45674282019807</v>
+        <v>73.63542757707906</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.006938252590735772</v>
+        <v>-0.1178344995886391</v>
       </c>
     </row>
     <row r="233">
@@ -3689,13 +3689,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>34.48035202509543</v>
+        <v>73.52741064037168</v>
       </c>
       <c r="C233" t="n">
-        <v>34.48885572247855</v>
+        <v>73.67138196380048</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.008503697383119402</v>
+        <v>-0.1439713234288007</v>
       </c>
     </row>
     <row r="234">
@@ -3703,13 +3703,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>34.50609409046547</v>
+        <v>73.58689923561806</v>
       </c>
       <c r="C234" t="n">
-        <v>34.52543698935229</v>
+        <v>73.61002919876023</v>
       </c>
       <c r="D234" t="n">
-        <v>-0.01934289888682628</v>
+        <v>-0.02312996314216775</v>
       </c>
     </row>
     <row r="235">
@@ -3717,13 +3717,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>34.51286712450842</v>
+        <v>73.59152835820667</v>
       </c>
       <c r="C235" t="n">
-        <v>34.54334747997003</v>
+        <v>73.64285095995116</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.03048035546161287</v>
+        <v>-0.05132260174448788</v>
       </c>
     </row>
     <row r="236">
@@ -3731,13 +3731,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>34.55984584255162</v>
+        <v>73.61422425720752</v>
       </c>
       <c r="C236" t="n">
-        <v>34.57251345688714</v>
+        <v>73.65262861814867</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.01266761433551977</v>
+        <v>-0.03840436094114352</v>
       </c>
     </row>
     <row r="237">
@@ -3745,13 +3745,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>34.56387962143439</v>
+        <v>73.64282765189343</v>
       </c>
       <c r="C237" t="n">
-        <v>34.57568406751658</v>
+        <v>73.68248353891342</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.01180444608218778</v>
+        <v>-0.03965588701998968</v>
       </c>
     </row>
     <row r="238">
@@ -3759,13 +3759,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>34.64200476445347</v>
+        <v>73.65248737429597</v>
       </c>
       <c r="C238" t="n">
-        <v>34.4512254790593</v>
+        <v>73.6615626014195</v>
       </c>
       <c r="D238" t="n">
-        <v>0.1907792853941714</v>
+        <v>-0.009075227123531704</v>
       </c>
     </row>
     <row r="239">
@@ -3773,13 +3773,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>34.68379300219014</v>
+        <v>73.68837981785011</v>
       </c>
       <c r="C239" t="n">
-        <v>34.32400515201053</v>
+        <v>73.87558295122727</v>
       </c>
       <c r="D239" t="n">
-        <v>0.3597878501796146</v>
+        <v>-0.1872031333771673</v>
       </c>
     </row>
     <row r="240">
@@ -3787,13 +3787,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>35.26421672352229</v>
+        <v>73.70378051764102</v>
       </c>
       <c r="C240" t="n">
-        <v>34.5224993805122</v>
+        <v>73.74453732628506</v>
       </c>
       <c r="D240" t="n">
-        <v>0.7417173430100874</v>
+        <v>-0.04075680864403353</v>
       </c>
     </row>
     <row r="241">
@@ -3801,13 +3801,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>36.39369722780675</v>
+        <v>73.73533097880473</v>
       </c>
       <c r="C241" t="n">
-        <v>36.47131722665863</v>
+        <v>73.75297575254115</v>
       </c>
       <c r="D241" t="n">
-        <v>-0.07761999885187976</v>
+        <v>-0.01764477373642137</v>
       </c>
     </row>
     <row r="242">
@@ -3815,13 +3815,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>36.40876410789806</v>
+        <v>73.73732665593836</v>
       </c>
       <c r="C242" t="n">
-        <v>36.58422737837726</v>
+        <v>73.86098281136798</v>
       </c>
       <c r="D242" t="n">
-        <v>-0.1754632704791987</v>
+        <v>-0.1236561554296145</v>
       </c>
     </row>
     <row r="243">
@@ -3829,13 +3829,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>36.40941234793841</v>
+        <v>73.75128177714225</v>
       </c>
       <c r="C243" t="n">
-        <v>36.59043583689308</v>
+        <v>73.82364905497161</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.181023488954672</v>
+        <v>-0.07236727782935759</v>
       </c>
     </row>
     <row r="244">
@@ -3843,13 +3843,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>36.42478009140459</v>
+        <v>73.75321103320432</v>
       </c>
       <c r="C244" t="n">
-        <v>36.53802026771844</v>
+        <v>73.86143386335</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.1132401763138517</v>
+        <v>-0.108222830145678</v>
       </c>
     </row>
     <row r="245">
@@ -3857,13 +3857,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>36.46214549208212</v>
+        <v>73.7933403635255</v>
       </c>
       <c r="C245" t="n">
-        <v>36.61281154962877</v>
+        <v>73.87084569880096</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.1506660575466583</v>
+        <v>-0.07750533527546111</v>
       </c>
     </row>
     <row r="246">
@@ -3871,13 +3871,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>36.46547077638245</v>
+        <v>73.80659684536872</v>
       </c>
       <c r="C246" t="n">
-        <v>36.57503504267832</v>
+        <v>73.84864438778686</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.1095642662958696</v>
+        <v>-0.04204754241814612</v>
       </c>
     </row>
     <row r="247">
@@ -3885,13 +3885,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>36.48822296495513</v>
+        <v>73.80705973045455</v>
       </c>
       <c r="C247" t="n">
-        <v>36.4995649503113</v>
+        <v>73.86810035778441</v>
       </c>
       <c r="D247" t="n">
-        <v>-0.01134198535617514</v>
+        <v>-0.06104062732985938</v>
       </c>
     </row>
     <row r="248">
@@ -3899,13 +3899,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>36.52098938125673</v>
+        <v>73.80791563411461</v>
       </c>
       <c r="C248" t="n">
-        <v>36.58494359254497</v>
+        <v>73.83283888074892</v>
       </c>
       <c r="D248" t="n">
-        <v>-0.06395421128823386</v>
+        <v>-0.02492324663431589</v>
       </c>
     </row>
     <row r="249">
@@ -3913,13 +3913,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>36.54297239533365</v>
+        <v>73.83384499078466</v>
       </c>
       <c r="C249" t="n">
-        <v>36.55033993300362</v>
+        <v>73.63173616486318</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.007367537669971114</v>
+        <v>0.2021088259214707</v>
       </c>
     </row>
     <row r="250">
@@ -3927,13 +3927,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>36.5545825477009</v>
+        <v>74.00352224363009</v>
       </c>
       <c r="C250" t="n">
-        <v>36.56117460751035</v>
+        <v>73.66259415374174</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.00659205980945643</v>
+        <v>0.3409280898883509</v>
       </c>
     </row>
     <row r="251">
@@ -3941,13 +3941,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>36.55751184354709</v>
+        <v>77.60294921887412</v>
       </c>
       <c r="C251" t="n">
-        <v>36.60934553788404</v>
+        <v>77.75904126652783</v>
       </c>
       <c r="D251" t="n">
-        <v>-0.05183369433694907</v>
+        <v>-0.1560920476537149</v>
       </c>
     </row>
     <row r="252">
@@ -3955,13 +3955,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>36.69317590359923</v>
+        <v>77.6074147392933</v>
       </c>
       <c r="C252" t="n">
-        <v>36.59235405333506</v>
+        <v>77.79759259408948</v>
       </c>
       <c r="D252" t="n">
-        <v>0.1008218502641611</v>
+        <v>-0.1901778547961754</v>
       </c>
     </row>
     <row r="253">
@@ -3969,13 +3969,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>36.73915375648573</v>
+        <v>77.61601973784776</v>
       </c>
       <c r="C253" t="n">
-        <v>36.5672326479092</v>
+        <v>77.80001840677667</v>
       </c>
       <c r="D253" t="n">
-        <v>0.1719211085765266</v>
+        <v>-0.1839986689289077</v>
       </c>
     </row>
     <row r="254">
@@ -3983,13 +3983,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>37.45986869984498</v>
+        <v>77.62346314893095</v>
       </c>
       <c r="C254" t="n">
-        <v>37.64228826192586</v>
+        <v>77.65905702487179</v>
       </c>
       <c r="D254" t="n">
-        <v>-0.1824195620808737</v>
+        <v>-0.03559387594083319</v>
       </c>
     </row>
     <row r="255">
@@ -3997,13 +3997,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>37.48100226373435</v>
+        <v>77.64753384737992</v>
       </c>
       <c r="C255" t="n">
-        <v>37.59299216521115</v>
+        <v>77.78513119738258</v>
       </c>
       <c r="D255" t="n">
-        <v>-0.1119899014767967</v>
+        <v>-0.1375973500026646</v>
       </c>
     </row>
     <row r="256">
@@ -4011,13 +4011,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>37.48410034717027</v>
+        <v>77.69007267555112</v>
       </c>
       <c r="C256" t="n">
-        <v>37.53232513927865</v>
+        <v>77.75455094009394</v>
       </c>
       <c r="D256" t="n">
-        <v>-0.04822479210837827</v>
+        <v>-0.06447826454281369</v>
       </c>
     </row>
     <row r="257">
@@ -4025,13 +4025,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>37.48887588526664</v>
+        <v>77.69661314831956</v>
       </c>
       <c r="C257" t="n">
-        <v>37.65663608177385</v>
+        <v>77.78403804291133</v>
       </c>
       <c r="D257" t="n">
-        <v>-0.1677601965072171</v>
+        <v>-0.08742489459177705</v>
       </c>
     </row>
     <row r="258">
@@ -4039,13 +4039,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>37.4940891263772</v>
+        <v>77.72592318741884</v>
       </c>
       <c r="C258" t="n">
-        <v>37.5199147764164</v>
+        <v>77.77981103443952</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.02582565003920223</v>
+        <v>-0.05388784702067539</v>
       </c>
     </row>
     <row r="259">
@@ -4053,13 +4053,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>37.50708119722809</v>
+        <v>80.36559057025842</v>
       </c>
       <c r="C259" t="n">
-        <v>37.52194261660657</v>
+        <v>80.54904758670367</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.01486141937848373</v>
+        <v>-0.1834570164452458</v>
       </c>
     </row>
     <row r="260">
@@ -4067,13 +4067,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>37.53450586926034</v>
+        <v>80.366007021193</v>
       </c>
       <c r="C260" t="n">
-        <v>37.62486967809269</v>
+        <v>80.46017409067242</v>
       </c>
       <c r="D260" t="n">
-        <v>-0.0903638088323504</v>
+        <v>-0.09416706947942544</v>
       </c>
     </row>
     <row r="261">
@@ -4081,13 +4081,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>37.57251401196582</v>
+        <v>80.36781724953774</v>
       </c>
       <c r="C261" t="n">
-        <v>37.58377674638369</v>
+        <v>80.47421969696167</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.01126273441786907</v>
+        <v>-0.1064024474239318</v>
       </c>
     </row>
     <row r="262">
@@ -4095,13 +4095,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>37.57605102355411</v>
+        <v>80.3705719887225</v>
       </c>
       <c r="C262" t="n">
-        <v>37.62938682270171</v>
+        <v>80.41433494663666</v>
       </c>
       <c r="D262" t="n">
-        <v>-0.05333579914760378</v>
+        <v>-0.0437629579141543</v>
       </c>
     </row>
     <row r="263">
@@ -4109,13 +4109,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>37.58763858991626</v>
+        <v>80.40534164636925</v>
       </c>
       <c r="C263" t="n">
-        <v>37.62055314140752</v>
+        <v>80.52175923398443</v>
       </c>
       <c r="D263" t="n">
-        <v>-0.03291455149125966</v>
+        <v>-0.1164175876151745</v>
       </c>
     </row>
     <row r="264">
@@ -4123,13 +4123,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>37.60296538056842</v>
+        <v>80.43044529195829</v>
       </c>
       <c r="C264" t="n">
-        <v>37.61301715041731</v>
+        <v>80.51708523166452</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.01005176984888578</v>
+        <v>-0.08663993970623096</v>
       </c>
     </row>
     <row r="265">
@@ -4137,13 +4137,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>37.6879776972082</v>
+        <v>80.45412447119324</v>
       </c>
       <c r="C265" t="n">
-        <v>37.65189714341162</v>
+        <v>80.49207597640788</v>
       </c>
       <c r="D265" t="n">
-        <v>0.03608055379658026</v>
+        <v>-0.03795150521463597</v>
       </c>
     </row>
     <row r="266">
@@ -4151,13 +4151,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>38.0997615748932</v>
+        <v>80.45625293164912</v>
       </c>
       <c r="C266" t="n">
-        <v>37.51418827528529</v>
+        <v>80.51109168791101</v>
       </c>
       <c r="D266" t="n">
-        <v>0.5855732996079155</v>
+        <v>-0.05483875626188706</v>
       </c>
     </row>
     <row r="267">
@@ -4165,13 +4165,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>44.16974885761096</v>
+        <v>80.49871591653076</v>
       </c>
       <c r="C267" t="n">
-        <v>44.2001208505167</v>
+        <v>80.52100230889278</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.03037199290574222</v>
+        <v>-0.02228639236201957</v>
       </c>
     </row>
     <row r="268">
@@ -4179,13 +4179,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>44.17690449768269</v>
+        <v>80.50507939040993</v>
       </c>
       <c r="C268" t="n">
-        <v>44.3282166832234</v>
+        <v>80.5736808296995</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.1513121855407107</v>
+        <v>-0.06860143928956575</v>
       </c>
     </row>
     <row r="269">
@@ -4193,13 +4193,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>44.18640231694079</v>
+        <v>80.5333788463866</v>
       </c>
       <c r="C269" t="n">
-        <v>44.21238163517247</v>
+        <v>80.57584666445379</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.02597931823167698</v>
+        <v>-0.04246781806719468</v>
       </c>
     </row>
     <row r="270">
@@ -4207,13 +4207,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>44.18727227262406</v>
+        <v>80.54376455585908</v>
       </c>
       <c r="C270" t="n">
-        <v>44.34612721891187</v>
+        <v>80.56382688950086</v>
       </c>
       <c r="D270" t="n">
-        <v>-0.1588549462878106</v>
+        <v>-0.0200623336417749</v>
       </c>
     </row>
     <row r="271">
@@ -4221,13 +4221,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>44.18815871824246</v>
+        <v>80.62815390724289</v>
       </c>
       <c r="C271" t="n">
-        <v>44.33737514913724</v>
+        <v>80.55880759814821</v>
       </c>
       <c r="D271" t="n">
-        <v>-0.1492164308947821</v>
+        <v>0.06934630909468353</v>
       </c>
     </row>
     <row r="272">
@@ -4235,13 +4235,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>44.1939908717067</v>
+        <v>80.90506101750888</v>
       </c>
       <c r="C272" t="n">
-        <v>44.30583813049267</v>
+        <v>80.56263429867785</v>
       </c>
       <c r="D272" t="n">
-        <v>-0.1118472587859642</v>
+        <v>0.3424267188310353</v>
       </c>
     </row>
     <row r="273">
@@ -4249,13 +4249,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>44.20758093433207</v>
+        <v>81.76919904311684</v>
       </c>
       <c r="C273" t="n">
-        <v>44.2233705757769</v>
+        <v>81.8726814015338</v>
       </c>
       <c r="D273" t="n">
-        <v>-0.01578964144482597</v>
+        <v>-0.1034823584169544</v>
       </c>
     </row>
     <row r="274">
@@ -4263,13 +4263,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>44.22205417535786</v>
+        <v>81.77062306141289</v>
       </c>
       <c r="C274" t="n">
-        <v>44.31394361118206</v>
+        <v>81.89430083008446</v>
       </c>
       <c r="D274" t="n">
-        <v>-0.09188943582419995</v>
+        <v>-0.1236777686715698</v>
       </c>
     </row>
     <row r="275">
@@ -4277,13 +4277,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>44.24587907834932</v>
+        <v>81.78667776565358</v>
       </c>
       <c r="C275" t="n">
-        <v>44.34276520968912</v>
+        <v>81.83154098816023</v>
       </c>
       <c r="D275" t="n">
-        <v>-0.09688613133980084</v>
+        <v>-0.04486322250664898</v>
       </c>
     </row>
     <row r="276">
@@ -4291,13 +4291,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>44.24756105242815</v>
+        <v>81.80885388205509</v>
       </c>
       <c r="C276" t="n">
-        <v>44.28133068550047</v>
+        <v>81.91162574990176</v>
       </c>
       <c r="D276" t="n">
-        <v>-0.03376963307231762</v>
+        <v>-0.1027718678466698</v>
       </c>
     </row>
     <row r="277">
@@ -4305,13 +4305,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>44.2499104204611</v>
+        <v>81.82046632855027</v>
       </c>
       <c r="C277" t="n">
-        <v>44.29651776579423</v>
+        <v>81.84255913013941</v>
       </c>
       <c r="D277" t="n">
-        <v>-0.04660734533313615</v>
+        <v>-0.02209280158913884</v>
       </c>
     </row>
     <row r="278">
@@ -4319,13 +4319,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>44.25838234050742</v>
+        <v>81.83433807959595</v>
       </c>
       <c r="C278" t="n">
-        <v>44.38303042381236</v>
+        <v>81.94992366763979</v>
       </c>
       <c r="D278" t="n">
-        <v>-0.1246480833049404</v>
+        <v>-0.1155855880438423</v>
       </c>
     </row>
     <row r="279">
@@ -4333,13 +4333,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>44.32341924503815</v>
+        <v>81.85595553710463</v>
       </c>
       <c r="C279" t="n">
-        <v>44.36902535429347</v>
+        <v>81.92188377361236</v>
       </c>
       <c r="D279" t="n">
-        <v>-0.04560610925531705</v>
+        <v>-0.06592823650773028</v>
       </c>
     </row>
     <row r="280">
@@ -4347,13 +4347,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>44.35340956437857</v>
+        <v>81.86304248456395</v>
       </c>
       <c r="C280" t="n">
-        <v>44.36816015151519</v>
+        <v>81.90517383459071</v>
       </c>
       <c r="D280" t="n">
-        <v>-0.01475058713662492</v>
+        <v>-0.04213135002676438</v>
       </c>
     </row>
     <row r="281">
@@ -4361,13 +4361,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>44.63449622770422</v>
+        <v>81.89077394226412</v>
       </c>
       <c r="C281" t="n">
-        <v>44.36688562822103</v>
+        <v>81.9886216180219</v>
       </c>
       <c r="D281" t="n">
-        <v>0.2676105994831914</v>
+        <v>-0.09784767575777664</v>
       </c>
     </row>
     <row r="282">
@@ -4375,13 +4375,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>50.94960740867029</v>
+        <v>81.91636562177915</v>
       </c>
       <c r="C282" t="n">
-        <v>51.00736001855515</v>
+        <v>81.95266585827132</v>
       </c>
       <c r="D282" t="n">
-        <v>-0.05775260988485797</v>
+        <v>-0.03630023649216696</v>
       </c>
     </row>
     <row r="283">
@@ -4389,13 +4389,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>50.95285760795637</v>
+        <v>81.93135114435614</v>
       </c>
       <c r="C283" t="n">
-        <v>51.14332922058878</v>
+        <v>81.94908853987955</v>
       </c>
       <c r="D283" t="n">
-        <v>-0.1904716126324075</v>
+        <v>-0.01773739552341169</v>
       </c>
     </row>
     <row r="284">
@@ -4403,13 +4403,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>50.97987102243577</v>
+        <v>81.95299687968027</v>
       </c>
       <c r="C284" t="n">
-        <v>51.02476078719325</v>
+        <v>81.98269172566179</v>
       </c>
       <c r="D284" t="n">
-        <v>-0.0448897647574853</v>
+        <v>-0.02969484598152405</v>
       </c>
     </row>
     <row r="285">
@@ -4417,13 +4417,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>50.98232924808628</v>
+        <v>81.96506723873291</v>
       </c>
       <c r="C285" t="n">
-        <v>50.98345173632265</v>
+        <v>81.97924662116318</v>
       </c>
       <c r="D285" t="n">
-        <v>-0.001122488236369179</v>
+        <v>-0.01417938243027095</v>
       </c>
     </row>
     <row r="286">
@@ -4431,13 +4431,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>50.99887611897164</v>
+        <v>83.58472308017129</v>
       </c>
       <c r="C286" t="n">
-        <v>51.02064215924256</v>
+        <v>83.77474643372391</v>
       </c>
       <c r="D286" t="n">
-        <v>-0.02176604027092566</v>
+        <v>-0.1900233535526183</v>
       </c>
     </row>
     <row r="287">
@@ -4445,13 +4445,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>51.0210270878524</v>
+        <v>83.59393735686047</v>
       </c>
       <c r="C287" t="n">
-        <v>51.09556389159096</v>
+        <v>83.73971644140352</v>
       </c>
       <c r="D287" t="n">
-        <v>-0.0745368037385532</v>
+        <v>-0.1457790845430509</v>
       </c>
     </row>
     <row r="288">
@@ -4459,13 +4459,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>51.06015225675048</v>
+        <v>83.61380694691077</v>
       </c>
       <c r="C288" t="n">
-        <v>51.06814703127417</v>
+        <v>83.75089708614644</v>
       </c>
       <c r="D288" t="n">
-        <v>-0.007994774523680803</v>
+        <v>-0.1370901392356672</v>
       </c>
     </row>
     <row r="289">
@@ -4473,13 +4473,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>51.07755999008792</v>
+        <v>83.62350807397453</v>
       </c>
       <c r="C289" t="n">
-        <v>51.26051718741716</v>
+        <v>83.70031957084232</v>
       </c>
       <c r="D289" t="n">
-        <v>-0.1829571973292445</v>
+        <v>-0.07681149686779065</v>
       </c>
     </row>
     <row r="290">
@@ -4487,13 +4487,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>51.13316322122676</v>
+        <v>83.63170280535438</v>
       </c>
       <c r="C290" t="n">
-        <v>51.19812066545582</v>
+        <v>83.70120489946895</v>
       </c>
       <c r="D290" t="n">
-        <v>-0.06495744422905858</v>
+        <v>-0.06950209411456854</v>
       </c>
     </row>
     <row r="291">
@@ -4501,13 +4501,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>51.13666718740941</v>
+        <v>83.6579312610977</v>
       </c>
       <c r="C291" t="n">
-        <v>51.21384861922726</v>
+        <v>83.76903143704402</v>
       </c>
       <c r="D291" t="n">
-        <v>-0.07718143181785564</v>
+        <v>-0.1111001759463193</v>
       </c>
     </row>
     <row r="292">
@@ -4515,13 +4515,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>51.14137257376359</v>
+        <v>83.67390406000324</v>
       </c>
       <c r="C292" t="n">
-        <v>51.16237632398256</v>
+        <v>83.70642541401484</v>
       </c>
       <c r="D292" t="n">
-        <v>-0.02100375021896639</v>
+        <v>-0.03252135401160672</v>
       </c>
     </row>
     <row r="293">
@@ -4529,13 +4529,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>51.14138708521901</v>
+        <v>83.72151086425062</v>
       </c>
       <c r="C293" t="n">
-        <v>51.15771048090628</v>
+        <v>83.72323707031444</v>
       </c>
       <c r="D293" t="n">
-        <v>-0.01632339568727303</v>
+        <v>-0.001726206063821678</v>
       </c>
     </row>
     <row r="294">
@@ -4543,13 +4543,13 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>51.14143172673418</v>
+        <v>83.73923954539049</v>
       </c>
       <c r="C294" t="n">
-        <v>51.18842383736086</v>
+        <v>83.75871384343233</v>
       </c>
       <c r="D294" t="n">
-        <v>-0.0469921106266824</v>
+        <v>-0.01947429804184253</v>
       </c>
     </row>
     <row r="295">
@@ -4557,13 +4557,13 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>51.14909109913665</v>
+        <v>84.66742731968098</v>
       </c>
       <c r="C295" t="n">
-        <v>51.20128159606658</v>
+        <v>84.81121961894796</v>
       </c>
       <c r="D295" t="n">
-        <v>-0.05219049692992428</v>
+        <v>-0.1437922992669769</v>
       </c>
     </row>
     <row r="296">
@@ -4571,13 +4571,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>51.1504609886478</v>
+        <v>84.67056954816498</v>
       </c>
       <c r="C296" t="n">
-        <v>51.17898662149262</v>
+        <v>84.86772201893754</v>
       </c>
       <c r="D296" t="n">
-        <v>-0.02852563284481846</v>
+        <v>-0.1971524707725649</v>
       </c>
     </row>
     <row r="297">
@@ -4585,13 +4585,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>51.17293608402782</v>
+        <v>84.68035233131143</v>
       </c>
       <c r="C297" t="n">
-        <v>51.14084657024668</v>
+        <v>84.69406052329104</v>
       </c>
       <c r="D297" t="n">
-        <v>0.03208951378113767</v>
+        <v>-0.01370819197961737</v>
       </c>
     </row>
     <row r="298">
@@ -4599,13 +4599,13 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>51.17335049049145</v>
+        <v>84.72884576711898</v>
       </c>
       <c r="C298" t="n">
-        <v>51.26967081989856</v>
+        <v>84.79273454948893</v>
       </c>
       <c r="D298" t="n">
-        <v>-0.09632032940710644</v>
+        <v>-0.06388878236994344</v>
       </c>
     </row>
     <row r="299">
@@ -4613,13 +4613,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>51.17381120540342</v>
+        <v>84.76531117270262</v>
       </c>
       <c r="C299" t="n">
-        <v>51.2534622304955</v>
+        <v>84.81245676920825</v>
       </c>
       <c r="D299" t="n">
-        <v>-0.07965102509208322</v>
+        <v>-0.04714559650562933</v>
       </c>
     </row>
     <row r="300">
@@ -4627,13 +4627,13 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>51.18680970381373</v>
+        <v>84.76863708147933</v>
       </c>
       <c r="C300" t="n">
-        <v>51.10735703447182</v>
+        <v>84.80509792719755</v>
       </c>
       <c r="D300" t="n">
-        <v>0.07945266934190442</v>
+        <v>-0.03646084571822428</v>
       </c>
     </row>
     <row r="301">
@@ -4641,13 +4641,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>51.18935742674664</v>
+        <v>84.78751421260331</v>
       </c>
       <c r="C301" t="n">
-        <v>51.19921181838113</v>
+        <v>84.85577973748984</v>
       </c>
       <c r="D301" t="n">
-        <v>-0.009854391634490867</v>
+        <v>-0.06826552488652737</v>
       </c>
     </row>
     <row r="302">
@@ -4655,13 +4655,13 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>51.19722251029482</v>
+        <v>84.80811393072122</v>
       </c>
       <c r="C302" t="n">
-        <v>51.28684876628879</v>
+        <v>84.80849900738843</v>
       </c>
       <c r="D302" t="n">
-        <v>-0.08962625599397001</v>
+        <v>-0.0003850766672144346</v>
       </c>
     </row>
     <row r="303">
@@ -4669,13 +4669,13 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>51.19895551053028</v>
+        <v>85.05874815488151</v>
       </c>
       <c r="C303" t="n">
-        <v>51.25207848649477</v>
+        <v>85.16673380717536</v>
       </c>
       <c r="D303" t="n">
-        <v>-0.05312297596449156</v>
+        <v>-0.1079856522938485</v>
       </c>
     </row>
     <row r="304">
@@ -4683,13 +4683,13 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>51.19926830901316</v>
+        <v>85.06139029635382</v>
       </c>
       <c r="C304" t="n">
-        <v>51.28609891833375</v>
+        <v>85.09625628761755</v>
       </c>
       <c r="D304" t="n">
-        <v>-0.08683060932059306</v>
+        <v>-0.0348659912637288</v>
       </c>
     </row>
     <row r="305">
@@ -4697,13 +4697,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>51.20605541859566</v>
+        <v>85.07040390259884</v>
       </c>
       <c r="C305" t="n">
-        <v>51.22666078804482</v>
+        <v>85.07771924332383</v>
       </c>
       <c r="D305" t="n">
-        <v>-0.02060536944915725</v>
+        <v>-0.007315340724986186</v>
       </c>
     </row>
     <row r="306">
@@ -4711,13 +4711,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>51.21030250653254</v>
+        <v>85.08352059627683</v>
       </c>
       <c r="C306" t="n">
-        <v>51.23916037609439</v>
+        <v>85.25528816753167</v>
       </c>
       <c r="D306" t="n">
-        <v>-0.02885786956184688</v>
+        <v>-0.171767571254847</v>
       </c>
     </row>
     <row r="307">
@@ -4725,13 +4725,13 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>51.2290690555866</v>
+        <v>85.09095134501054</v>
       </c>
       <c r="C307" t="n">
-        <v>51.26716289846411</v>
+        <v>85.26280268488094</v>
       </c>
       <c r="D307" t="n">
-        <v>-0.03809384287750817</v>
+        <v>-0.1718513398704005</v>
       </c>
     </row>
     <row r="308">
@@ -4739,13 +4739,13 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>51.25982952012958</v>
+        <v>85.09351902657495</v>
       </c>
       <c r="C308" t="n">
-        <v>51.33366448200715</v>
+        <v>85.18359582926749</v>
       </c>
       <c r="D308" t="n">
-        <v>-0.07383496187757288</v>
+        <v>-0.09007680269253626</v>
       </c>
     </row>
     <row r="309">
@@ -4753,13 +4753,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>51.26305367197055</v>
+        <v>85.09675002965294</v>
       </c>
       <c r="C309" t="n">
-        <v>51.30099674909064</v>
+        <v>84.84030264458767</v>
       </c>
       <c r="D309" t="n">
-        <v>-0.03794307712009015</v>
+        <v>0.2564473850652718</v>
       </c>
     </row>
     <row r="310">
@@ -4767,13 +4767,13 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>51.33566208626225</v>
+        <v>85.10750031207962</v>
       </c>
       <c r="C310" t="n">
-        <v>51.34589989019492</v>
+        <v>85.19303099667813</v>
       </c>
       <c r="D310" t="n">
-        <v>-0.01023780393267515</v>
+        <v>-0.08553068459850977</v>
       </c>
     </row>
     <row r="311">
@@ -4781,13 +4781,13 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>51.50663944291377</v>
+        <v>85.13006527739017</v>
       </c>
       <c r="C311" t="n">
-        <v>51.31727192992616</v>
+        <v>85.23939052906466</v>
       </c>
       <c r="D311" t="n">
-        <v>0.1893675129876158</v>
+        <v>-0.1093252516744911</v>
       </c>
     </row>
     <row r="312">
@@ -4795,13 +4795,13 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>53.34378120039724</v>
+        <v>85.13746049573038</v>
       </c>
       <c r="C312" t="n">
-        <v>53.46426009668704</v>
+        <v>85.14477704185805</v>
       </c>
       <c r="D312" t="n">
-        <v>-0.1204788962898036</v>
+        <v>-0.007316546127668744</v>
       </c>
     </row>
     <row r="313">
@@ -4809,13 +4809,13 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>53.35851929870179</v>
+        <v>85.13876611458504</v>
       </c>
       <c r="C313" t="n">
-        <v>53.51191007811932</v>
+        <v>85.23371222167802</v>
       </c>
       <c r="D313" t="n">
-        <v>-0.1533907794175349</v>
+        <v>-0.09494610709298001</v>
       </c>
     </row>
     <row r="314">
@@ -4823,13 +4823,13 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>53.36056141322093</v>
+        <v>85.16132159471051</v>
       </c>
       <c r="C314" t="n">
-        <v>53.50275905384837</v>
+        <v>85.23302816180001</v>
       </c>
       <c r="D314" t="n">
-        <v>-0.1421976406274368</v>
+        <v>-0.07170656708949252</v>
       </c>
     </row>
     <row r="315">
@@ -4837,13 +4837,13 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>53.36515530972213</v>
+        <v>85.19056104695639</v>
       </c>
       <c r="C315" t="n">
-        <v>53.46895732466783</v>
+        <v>85.22319520313674</v>
       </c>
       <c r="D315" t="n">
-        <v>-0.1038020149457068</v>
+        <v>-0.03263415618035026</v>
       </c>
     </row>
     <row r="316">
@@ -4851,13 +4851,13 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>53.36627447964695</v>
+        <v>85.21228400552204</v>
       </c>
       <c r="C316" t="n">
-        <v>53.45928536470874</v>
+        <v>85.27070204100266</v>
       </c>
       <c r="D316" t="n">
-        <v>-0.09301088506179411</v>
+        <v>-0.05841803548062785</v>
       </c>
     </row>
     <row r="317">
@@ -4865,13 +4865,13 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>53.3724162995326</v>
+        <v>85.39126028247904</v>
       </c>
       <c r="C317" t="n">
-        <v>53.5714715834803</v>
+        <v>85.25813141160819</v>
       </c>
       <c r="D317" t="n">
-        <v>-0.1990552839477076</v>
+        <v>0.1331288708708485</v>
       </c>
     </row>
     <row r="318">
@@ -4879,13 +4879,13 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>53.37945332497782</v>
+        <v>85.64435628233849</v>
       </c>
       <c r="C318" t="n">
-        <v>53.39516198641562</v>
+        <v>85.2765666812183</v>
       </c>
       <c r="D318" t="n">
-        <v>-0.01570866143779881</v>
+        <v>0.3677896011201938</v>
       </c>
     </row>
     <row r="319">
@@ -4893,13 +4893,13 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>53.40122959891315</v>
+        <v>89.88521244602229</v>
       </c>
       <c r="C319" t="n">
-        <v>53.4154970153507</v>
+        <v>89.90636356492912</v>
       </c>
       <c r="D319" t="n">
-        <v>-0.01426741643754781</v>
+        <v>-0.02115111890682897</v>
       </c>
     </row>
     <row r="320">
@@ -4907,13 +4907,13 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>53.415564641844</v>
+        <v>89.89020049578242</v>
       </c>
       <c r="C320" t="n">
-        <v>53.43149864723695</v>
+        <v>89.95180306959644</v>
       </c>
       <c r="D320" t="n">
-        <v>-0.01593400539294976</v>
+        <v>-0.06160257381401379</v>
       </c>
     </row>
     <row r="321">
@@ -4921,13 +4921,13 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>53.42205909730585</v>
+        <v>89.89092407201042</v>
       </c>
       <c r="C321" t="n">
-        <v>53.42400793372178</v>
+        <v>89.95794842511027</v>
       </c>
       <c r="D321" t="n">
-        <v>-0.001948836415920141</v>
+        <v>-0.06702435309985333</v>
       </c>
     </row>
     <row r="322">
@@ -4935,13 +4935,13 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>53.45002211809695</v>
+        <v>89.89270900307253</v>
       </c>
       <c r="C322" t="n">
-        <v>53.45013007442029</v>
+        <v>90.06959879539158</v>
       </c>
       <c r="D322" t="n">
-        <v>-0.0001079563233403746</v>
+        <v>-0.1768897923190593</v>
       </c>
     </row>
     <row r="323">
@@ -4949,13 +4949,13 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>53.45905038982808</v>
+        <v>89.89407322095597</v>
       </c>
       <c r="C323" t="n">
-        <v>53.54204972693621</v>
+        <v>90.06242433619276</v>
       </c>
       <c r="D323" t="n">
-        <v>-0.08299933710813434</v>
+        <v>-0.1683511152367885</v>
       </c>
     </row>
     <row r="324">
@@ -4963,13 +4963,13 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>53.45934658093865</v>
+        <v>89.93012461230823</v>
       </c>
       <c r="C324" t="n">
-        <v>53.53079348527452</v>
+        <v>90.09786018460834</v>
       </c>
       <c r="D324" t="n">
-        <v>-0.07144690433587186</v>
+        <v>-0.1677355723001028</v>
       </c>
     </row>
     <row r="325">
@@ -4977,13 +4977,13 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>53.46186941532302</v>
+        <v>89.94854738580416</v>
       </c>
       <c r="C325" t="n">
-        <v>53.56389687441152</v>
+        <v>89.97345667391215</v>
       </c>
       <c r="D325" t="n">
-        <v>-0.1020274590884966</v>
+        <v>-0.02490928810799176</v>
       </c>
     </row>
     <row r="326">
@@ -4991,13 +4991,13 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>53.46571207040423</v>
+        <v>89.95600757925065</v>
       </c>
       <c r="C326" t="n">
-        <v>53.42280144227756</v>
+        <v>90.02411660963486</v>
       </c>
       <c r="D326" t="n">
-        <v>0.04291062812666979</v>
+        <v>-0.0681090303842069</v>
       </c>
     </row>
     <row r="327">
@@ -5005,13 +5005,13 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>53.4751534363818</v>
+        <v>89.95742541600505</v>
       </c>
       <c r="C327" t="n">
-        <v>53.55971060577137</v>
+        <v>89.97471672076195</v>
       </c>
       <c r="D327" t="n">
-        <v>-0.08455716938957636</v>
+        <v>-0.01729130475689544</v>
       </c>
     </row>
     <row r="328">
@@ -5019,13 +5019,13 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>53.47726357870106</v>
+        <v>89.97353146482062</v>
       </c>
       <c r="C328" t="n">
-        <v>53.48375342588887</v>
+        <v>90.04270278728029</v>
       </c>
       <c r="D328" t="n">
-        <v>-0.006489847187808095</v>
+        <v>-0.06917132245966684</v>
       </c>
     </row>
     <row r="329">
@@ -5033,13 +5033,13 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>53.497676728447</v>
+        <v>90.00250494270522</v>
       </c>
       <c r="C329" t="n">
-        <v>53.64906752056081</v>
+        <v>90.00367744296099</v>
       </c>
       <c r="D329" t="n">
-        <v>-0.1513907921138014</v>
+        <v>-0.001172500255776754</v>
       </c>
     </row>
     <row r="330">
@@ -5047,13 +5047,13 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>53.50257663430617</v>
+        <v>90.03106455741082</v>
       </c>
       <c r="C330" t="n">
-        <v>53.68837594598538</v>
+        <v>90.06547930222523</v>
       </c>
       <c r="D330" t="n">
-        <v>-0.1857993116792187</v>
+        <v>-0.03441474481441276</v>
       </c>
     </row>
     <row r="331">
@@ -5061,13 +5061,13 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>53.50406994661365</v>
+        <v>90.22623571716549</v>
       </c>
       <c r="C331" t="n">
-        <v>53.55142812684297</v>
+        <v>90.02345975231619</v>
       </c>
       <c r="D331" t="n">
-        <v>-0.04735818022932392</v>
+        <v>0.2027759648493088</v>
       </c>
     </row>
     <row r="332">
@@ -5075,13 +5075,13 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>53.5214720986449</v>
+        <v>92.4856332874177</v>
       </c>
       <c r="C332" t="n">
-        <v>53.55070901829261</v>
+        <v>92.57861444359044</v>
       </c>
       <c r="D332" t="n">
-        <v>-0.02923691964771535</v>
+        <v>-0.0929811561727405</v>
       </c>
     </row>
     <row r="333">
@@ -5089,13 +5089,13 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>53.53475517246791</v>
+        <v>92.51514525695676</v>
       </c>
       <c r="C333" t="n">
-        <v>53.57486154816517</v>
+        <v>92.5784877417553</v>
       </c>
       <c r="D333" t="n">
-        <v>-0.04010637569726327</v>
+        <v>-0.06334248479853954</v>
       </c>
     </row>
     <row r="334">
@@ -5103,13 +5103,13 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>53.58229014870233</v>
+        <v>92.56789843024987</v>
       </c>
       <c r="C334" t="n">
-        <v>53.66734896831495</v>
+        <v>92.67917435228738</v>
       </c>
       <c r="D334" t="n">
-        <v>-0.08505881961261963</v>
+        <v>-0.1112759220375068</v>
       </c>
     </row>
     <row r="335">
@@ -5117,13 +5117,13 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>53.59027671542056</v>
+        <v>92.60094649418122</v>
       </c>
       <c r="C335" t="n">
-        <v>53.68665360600985</v>
+        <v>92.66094800924979</v>
       </c>
       <c r="D335" t="n">
-        <v>-0.09637689058929055</v>
+        <v>-0.06000151506857776</v>
       </c>
     </row>
     <row r="336">
@@ -5131,13 +5131,13 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>53.59450404174107</v>
+        <v>92.63243910791671</v>
       </c>
       <c r="C336" t="n">
-        <v>53.69339774545475</v>
+        <v>92.66854899083116</v>
       </c>
       <c r="D336" t="n">
-        <v>-0.098893703713685</v>
+        <v>-0.03610988291444528</v>
       </c>
     </row>
     <row r="337">
@@ -5145,13 +5145,13 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>53.62657590925841</v>
+        <v>92.65043132407891</v>
       </c>
       <c r="C337" t="n">
-        <v>53.67987988670236</v>
+        <v>92.68893844993514</v>
       </c>
       <c r="D337" t="n">
-        <v>-0.05330397744394588</v>
+        <v>-0.03850712585622773</v>
       </c>
     </row>
     <row r="338">
@@ -5159,13 +5159,13 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>53.62702008369083</v>
+        <v>92.67385277161621</v>
       </c>
       <c r="C338" t="n">
-        <v>53.67564751298404</v>
+        <v>92.67893278457454</v>
       </c>
       <c r="D338" t="n">
-        <v>-0.04862742929321229</v>
+        <v>-0.005080012958330826</v>
       </c>
     </row>
     <row r="339">
@@ -5173,13 +5173,13 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>53.64593800324585</v>
+        <v>95.16433441582427</v>
       </c>
       <c r="C339" t="n">
-        <v>53.71303351582757</v>
+        <v>95.3611357076072</v>
       </c>
       <c r="D339" t="n">
-        <v>-0.06709551258171587</v>
+        <v>-0.1968012917829327</v>
       </c>
     </row>
     <row r="340">
@@ -5187,13 +5187,13 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>53.6554376011686</v>
+        <v>95.16838354578184</v>
       </c>
       <c r="C340" t="n">
-        <v>53.70664362238171</v>
+        <v>95.34088968114345</v>
       </c>
       <c r="D340" t="n">
-        <v>-0.0512060212131118</v>
+        <v>-0.1725061353616155</v>
       </c>
     </row>
     <row r="341">
@@ -5201,13 +5201,13 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>53.65633943053797</v>
+        <v>95.1824474711497</v>
       </c>
       <c r="C341" t="n">
-        <v>53.69905603075629</v>
+        <v>95.30887987673155</v>
       </c>
       <c r="D341" t="n">
-        <v>-0.04271660021831991</v>
+        <v>-0.126432405581852</v>
       </c>
     </row>
     <row r="342">
@@ -5215,13 +5215,13 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>53.65716020494803</v>
+        <v>95.18516510846536</v>
       </c>
       <c r="C342" t="n">
-        <v>53.49613989500006</v>
+        <v>95.19840384183138</v>
       </c>
       <c r="D342" t="n">
-        <v>0.1610203099479719</v>
+        <v>-0.01323873336602333</v>
       </c>
     </row>
     <row r="343">
@@ -5229,13 +5229,13 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>53.70622967108823</v>
+        <v>95.18529045402917</v>
       </c>
       <c r="C343" t="n">
-        <v>53.71785512208561</v>
+        <v>95.31206282763814</v>
       </c>
       <c r="D343" t="n">
-        <v>-0.01162545099737855</v>
+        <v>-0.1267723736089721</v>
       </c>
     </row>
     <row r="344">
@@ -5243,13 +5243,13 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>54.06664835869842</v>
+        <v>95.21052368316634</v>
       </c>
       <c r="C344" t="n">
-        <v>53.67663235249524</v>
+        <v>95.25976753096502</v>
       </c>
       <c r="D344" t="n">
-        <v>0.390016006203183</v>
+        <v>-0.04924384779867808</v>
       </c>
     </row>
     <row r="345">
@@ -5257,13 +5257,13 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>57.96095877780954</v>
+        <v>95.2126389533818</v>
       </c>
       <c r="C345" t="n">
-        <v>58.07046176126264</v>
+        <v>95.33799395373124</v>
       </c>
       <c r="D345" t="n">
-        <v>-0.1095029834530905</v>
+        <v>-0.1253550003494439</v>
       </c>
     </row>
     <row r="346">
@@ -5271,13 +5271,13 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>57.9651204299206</v>
+        <v>95.2201973400967</v>
       </c>
       <c r="C346" t="n">
-        <v>58.12935324069959</v>
+        <v>95.23535012795423</v>
       </c>
       <c r="D346" t="n">
-        <v>-0.1642328107789837</v>
+        <v>-0.01515278785753083</v>
       </c>
     </row>
     <row r="347">
@@ -5285,13 +5285,13 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>57.98048368740636</v>
+        <v>95.22412309361546</v>
       </c>
       <c r="C347" t="n">
-        <v>58.17968256829803</v>
+        <v>95.25959618676899</v>
       </c>
       <c r="D347" t="n">
-        <v>-0.1991988808916716</v>
+        <v>-0.0354730931535272</v>
       </c>
     </row>
     <row r="348">
@@ -5299,13 +5299,13 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>58.01748888206838</v>
+        <v>95.2275764472013</v>
       </c>
       <c r="C348" t="n">
-        <v>58.04112908834317</v>
+        <v>95.34116683808404</v>
       </c>
       <c r="D348" t="n">
-        <v>-0.02364020627479135</v>
+        <v>-0.1135903908827345</v>
       </c>
     </row>
     <row r="349">
@@ -5313,13 +5313,13 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>58.03643568597268</v>
+        <v>95.30950946419786</v>
       </c>
       <c r="C349" t="n">
-        <v>58.16210949876385</v>
+        <v>95.34469098260385</v>
       </c>
       <c r="D349" t="n">
-        <v>-0.1256738127911774</v>
+        <v>-0.0351815184059916</v>
       </c>
     </row>
     <row r="350">
@@ -5327,13 +5327,13 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>58.04130647735243</v>
+        <v>95.31280732346843</v>
       </c>
       <c r="C350" t="n">
-        <v>58.08220014963262</v>
+        <v>95.34773742739516</v>
       </c>
       <c r="D350" t="n">
-        <v>-0.04089367228019114</v>
+        <v>-0.03493010392672602</v>
       </c>
     </row>
     <row r="351">
@@ -5341,13 +5341,13 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>58.05615567990382</v>
+        <v>95.32035673866378</v>
       </c>
       <c r="C351" t="n">
-        <v>58.18122719419598</v>
+        <v>95.33653164071535</v>
       </c>
       <c r="D351" t="n">
-        <v>-0.1250715142921592</v>
+        <v>-0.01617490205157424</v>
       </c>
     </row>
     <row r="352">
@@ -5355,13 +5355,13 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>58.06755316930225</v>
+        <v>95.33600833092547</v>
       </c>
       <c r="C352" t="n">
-        <v>58.12416560487816</v>
+        <v>95.32426341254168</v>
       </c>
       <c r="D352" t="n">
-        <v>-0.05661243557590723</v>
+        <v>0.01174491838378344</v>
       </c>
     </row>
     <row r="353">
@@ -5369,1875 +5369,13 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>58.0779692395983</v>
+        <v>95.37192918045898</v>
       </c>
       <c r="C353" t="n">
-        <v>58.1389348051669</v>
+        <v>95.31817167703474</v>
       </c>
       <c r="D353" t="n">
-        <v>-0.06096556556860122</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="n">
-        <v>58.10390162378506</v>
-      </c>
-      <c r="C354" t="n">
-        <v>58.1353144404397</v>
-      </c>
-      <c r="D354" t="n">
-        <v>-0.0314128166546368</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="n">
-        <v>58.11478362074176</v>
-      </c>
-      <c r="C355" t="n">
-        <v>58.1449518141939</v>
-      </c>
-      <c r="D355" t="n">
-        <v>-0.03016819345214117</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="n">
-        <v>58.1216652627206</v>
-      </c>
-      <c r="C356" t="n">
-        <v>58.14608535039748</v>
-      </c>
-      <c r="D356" t="n">
-        <v>-0.02442008767688009</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="n">
-        <v>58.15307273610195</v>
-      </c>
-      <c r="C357" t="n">
-        <v>58.16415146953565</v>
-      </c>
-      <c r="D357" t="n">
-        <v>-0.01107873343369192</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="n">
-        <v>58.95995214317715</v>
-      </c>
-      <c r="C358" t="n">
-        <v>58.18214384897559</v>
-      </c>
-      <c r="D358" t="n">
-        <v>0.7778082942015629</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="n">
-        <v>66.16540182081444</v>
-      </c>
-      <c r="C359" t="n">
-        <v>66.18714788885774</v>
-      </c>
-      <c r="D359" t="n">
-        <v>-0.02174606804329926</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="n">
-        <v>66.19032407299642</v>
-      </c>
-      <c r="C360" t="n">
-        <v>66.23696139468078</v>
-      </c>
-      <c r="D360" t="n">
-        <v>-0.04663732168435786</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="n">
-        <v>66.20491097863174</v>
-      </c>
-      <c r="C361" t="n">
-        <v>66.32688741338879</v>
-      </c>
-      <c r="D361" t="n">
-        <v>-0.1219764347570447</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="n">
-        <v>66.25100049285918</v>
-      </c>
-      <c r="C362" t="n">
-        <v>66.3335530586382</v>
-      </c>
-      <c r="D362" t="n">
-        <v>-0.08255256577902514</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="n">
-        <v>66.26371966646242</v>
-      </c>
-      <c r="C363" t="n">
-        <v>66.28149609345884</v>
-      </c>
-      <c r="D363" t="n">
-        <v>-0.01777642699642001</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="n">
-        <v>66.33398046262865</v>
-      </c>
-      <c r="C364" t="n">
-        <v>66.34522205351658</v>
-      </c>
-      <c r="D364" t="n">
-        <v>-0.01124159088793419</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="n">
-        <v>69.08961025988827</v>
-      </c>
-      <c r="C365" t="n">
-        <v>69.18681691305623</v>
-      </c>
-      <c r="D365" t="n">
-        <v>-0.09720665316795873</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="n">
-        <v>69.10296478200084</v>
-      </c>
-      <c r="C366" t="n">
-        <v>69.14108186252386</v>
-      </c>
-      <c r="D366" t="n">
-        <v>-0.03811708052302265</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="n">
-        <v>69.10297781630905</v>
-      </c>
-      <c r="C367" t="n">
-        <v>69.16670374813967</v>
-      </c>
-      <c r="D367" t="n">
-        <v>-0.06372593183061781</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>69.12516425057593</v>
-      </c>
-      <c r="C368" t="n">
-        <v>69.23792665495917</v>
-      </c>
-      <c r="D368" t="n">
-        <v>-0.1127624043832327</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>69.13253595087063</v>
-      </c>
-      <c r="C369" t="n">
-        <v>69.2870193484294</v>
-      </c>
-      <c r="D369" t="n">
-        <v>-0.1544833975587636</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>69.15398755473278</v>
-      </c>
-      <c r="C370" t="n">
-        <v>69.26665304588867</v>
-      </c>
-      <c r="D370" t="n">
-        <v>-0.1126654911558944</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
-        <v>69.15424030715174</v>
-      </c>
-      <c r="C371" t="n">
-        <v>69.28898465932451</v>
-      </c>
-      <c r="D371" t="n">
-        <v>-0.134744352172774</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>69.15732338354252</v>
-      </c>
-      <c r="C372" t="n">
-        <v>69.19616548892031</v>
-      </c>
-      <c r="D372" t="n">
-        <v>-0.03884210537779609</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="n">
-        <v>69.19051610929489</v>
-      </c>
-      <c r="C373" t="n">
-        <v>69.25448384975698</v>
-      </c>
-      <c r="D373" t="n">
-        <v>-0.06396774046208975</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="n">
-        <v>69.19083706252239</v>
-      </c>
-      <c r="C374" t="n">
-        <v>69.20865323981816</v>
-      </c>
-      <c r="D374" t="n">
-        <v>-0.01781617729577079</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="n">
-        <v>69.23050161519207</v>
-      </c>
-      <c r="C375" t="n">
-        <v>69.26668696731633</v>
-      </c>
-      <c r="D375" t="n">
-        <v>-0.03618535212426366</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="n">
-        <v>69.24621007487269</v>
-      </c>
-      <c r="C376" t="n">
-        <v>69.29446758924151</v>
-      </c>
-      <c r="D376" t="n">
-        <v>-0.04825751436881376</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="n">
-        <v>69.26608774629464</v>
-      </c>
-      <c r="C377" t="n">
-        <v>69.27937891591559</v>
-      </c>
-      <c r="D377" t="n">
-        <v>-0.0132911696209419</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="n">
-        <v>69.31951557553975</v>
-      </c>
-      <c r="C378" t="n">
-        <v>69.18952229305079</v>
-      </c>
-      <c r="D378" t="n">
-        <v>0.129993282488968</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="n">
-        <v>70.09730836383663</v>
-      </c>
-      <c r="C379" t="n">
-        <v>70.24752515819418</v>
-      </c>
-      <c r="D379" t="n">
-        <v>-0.1502167943575472</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B380" t="n">
-        <v>70.11346339862739</v>
-      </c>
-      <c r="C380" t="n">
-        <v>70.18811059204977</v>
-      </c>
-      <c r="D380" t="n">
-        <v>-0.07464719342237913</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B381" t="n">
-        <v>70.1220318382839</v>
-      </c>
-      <c r="C381" t="n">
-        <v>70.16153724369285</v>
-      </c>
-      <c r="D381" t="n">
-        <v>-0.03950540540894565</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="B382" t="n">
-        <v>70.14359468230673</v>
-      </c>
-      <c r="C382" t="n">
-        <v>70.19161943939935</v>
-      </c>
-      <c r="D382" t="n">
-        <v>-0.04802475709261955</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="B383" t="n">
-        <v>70.19889839278002</v>
-      </c>
-      <c r="C383" t="n">
-        <v>70.30894127228855</v>
-      </c>
-      <c r="D383" t="n">
-        <v>-0.1100428795085264</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="B384" t="n">
-        <v>70.21560437510392</v>
-      </c>
-      <c r="C384" t="n">
-        <v>70.3068524584143</v>
-      </c>
-      <c r="D384" t="n">
-        <v>-0.0912480833103757</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
-        <v>383</v>
-      </c>
-      <c r="B385" t="n">
-        <v>70.22275452909793</v>
-      </c>
-      <c r="C385" t="n">
-        <v>70.22854763966158</v>
-      </c>
-      <c r="D385" t="n">
-        <v>-0.005793110563658388</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
-        <v>384</v>
-      </c>
-      <c r="B386" t="n">
-        <v>70.25259891328825</v>
-      </c>
-      <c r="C386" t="n">
-        <v>70.23306993519834</v>
-      </c>
-      <c r="D386" t="n">
-        <v>0.01952897808990883</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
-        <v>385</v>
-      </c>
-      <c r="B387" t="n">
-        <v>70.26202223040838</v>
-      </c>
-      <c r="C387" t="n">
-        <v>70.30599717210096</v>
-      </c>
-      <c r="D387" t="n">
-        <v>-0.04397494169258209</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
-        <v>386</v>
-      </c>
-      <c r="B388" t="n">
-        <v>70.26696910638532</v>
-      </c>
-      <c r="C388" t="n">
-        <v>70.28122984595213</v>
-      </c>
-      <c r="D388" t="n">
-        <v>-0.01426073956680796</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
-        <v>387</v>
-      </c>
-      <c r="B389" t="n">
-        <v>70.27349071156277</v>
-      </c>
-      <c r="C389" t="n">
-        <v>70.27955477586495</v>
-      </c>
-      <c r="D389" t="n">
-        <v>-0.006064064302179872</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" s="1" t="n">
-        <v>388</v>
-      </c>
-      <c r="B390" t="n">
-        <v>70.27684254534169</v>
-      </c>
-      <c r="C390" t="n">
-        <v>70.28951389904904</v>
-      </c>
-      <c r="D390" t="n">
-        <v>-0.01267135370734707</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" s="1" t="n">
-        <v>389</v>
-      </c>
-      <c r="B391" t="n">
-        <v>70.30046270206772</v>
-      </c>
-      <c r="C391" t="n">
-        <v>70.30470207048089</v>
-      </c>
-      <c r="D391" t="n">
-        <v>-0.004239368413166744</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" s="1" t="n">
-        <v>390</v>
-      </c>
-      <c r="B392" t="n">
-        <v>70.39191207874556</v>
-      </c>
-      <c r="C392" t="n">
-        <v>70.24496379434554</v>
-      </c>
-      <c r="D392" t="n">
-        <v>0.1469482844000254</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" s="1" t="n">
-        <v>391</v>
-      </c>
-      <c r="B393" t="n">
-        <v>70.42574929412514</v>
-      </c>
-      <c r="C393" t="n">
-        <v>70.16761630436869</v>
-      </c>
-      <c r="D393" t="n">
-        <v>0.2581329897564473</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" s="1" t="n">
-        <v>392</v>
-      </c>
-      <c r="B394" t="n">
-        <v>72.25264987892282</v>
-      </c>
-      <c r="C394" t="n">
-        <v>72.25274850170662</v>
-      </c>
-      <c r="D394" t="n">
-        <v>-9.862278379557665e-05</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" s="1" t="n">
-        <v>393</v>
-      </c>
-      <c r="B395" t="n">
-        <v>72.26209754483433</v>
-      </c>
-      <c r="C395" t="n">
-        <v>72.32307846321119</v>
-      </c>
-      <c r="D395" t="n">
-        <v>-0.06098091837685615</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" s="1" t="n">
-        <v>394</v>
-      </c>
-      <c r="B396" t="n">
-        <v>72.2672454634355</v>
-      </c>
-      <c r="C396" t="n">
-        <v>72.27778429990606</v>
-      </c>
-      <c r="D396" t="n">
-        <v>-0.01053883647055898</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" s="1" t="n">
-        <v>395</v>
-      </c>
-      <c r="B397" t="n">
-        <v>72.28631085411065</v>
-      </c>
-      <c r="C397" t="n">
-        <v>72.34684077852843</v>
-      </c>
-      <c r="D397" t="n">
-        <v>-0.0605299244177786</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" s="1" t="n">
-        <v>396</v>
-      </c>
-      <c r="B398" t="n">
-        <v>72.31894271159072</v>
-      </c>
-      <c r="C398" t="n">
-        <v>72.36416669639773</v>
-      </c>
-      <c r="D398" t="n">
-        <v>-0.04522398480700929</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" s="1" t="n">
-        <v>397</v>
-      </c>
-      <c r="B399" t="n">
-        <v>73.46104297145131</v>
-      </c>
-      <c r="C399" t="n">
-        <v>73.53960194163956</v>
-      </c>
-      <c r="D399" t="n">
-        <v>-0.07855897018825431</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" s="1" t="n">
-        <v>398</v>
-      </c>
-      <c r="B400" t="n">
-        <v>73.46475181104267</v>
-      </c>
-      <c r="C400" t="n">
-        <v>73.54625413450131</v>
-      </c>
-      <c r="D400" t="n">
-        <v>-0.08150232345863628</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" s="1" t="n">
-        <v>399</v>
-      </c>
-      <c r="B401" t="n">
-        <v>73.48383645263809</v>
-      </c>
-      <c r="C401" t="n">
-        <v>73.53416343682522</v>
-      </c>
-      <c r="D401" t="n">
-        <v>-0.05032698418713721</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="B402" t="n">
-        <v>73.49093594263122</v>
-      </c>
-      <c r="C402" t="n">
-        <v>73.50747229036567</v>
-      </c>
-      <c r="D402" t="n">
-        <v>-0.01653634773444423</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" s="1" t="n">
-        <v>401</v>
-      </c>
-      <c r="B403" t="n">
-        <v>73.52306173156812</v>
-      </c>
-      <c r="C403" t="n">
-        <v>73.62605661557636</v>
-      </c>
-      <c r="D403" t="n">
-        <v>-0.1029948840082398</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" s="1" t="n">
-        <v>402</v>
-      </c>
-      <c r="B404" t="n">
-        <v>73.53252079661539</v>
-      </c>
-      <c r="C404" t="n">
-        <v>73.65383695147331</v>
-      </c>
-      <c r="D404" t="n">
-        <v>-0.1213161548579222</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" s="1" t="n">
-        <v>403</v>
-      </c>
-      <c r="B405" t="n">
-        <v>73.55209335147016</v>
-      </c>
-      <c r="C405" t="n">
-        <v>73.61865413640659</v>
-      </c>
-      <c r="D405" t="n">
-        <v>-0.06656078493642781</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" s="1" t="n">
-        <v>404</v>
-      </c>
-      <c r="B406" t="n">
-        <v>73.55451531945383</v>
-      </c>
-      <c r="C406" t="n">
-        <v>73.6021708356289</v>
-      </c>
-      <c r="D406" t="n">
-        <v>-0.04765551617506958</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" s="1" t="n">
-        <v>405</v>
-      </c>
-      <c r="B407" t="n">
-        <v>73.56858791482811</v>
-      </c>
-      <c r="C407" t="n">
-        <v>73.59440339632951</v>
-      </c>
-      <c r="D407" t="n">
-        <v>-0.02581548150139668</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" s="1" t="n">
-        <v>406</v>
-      </c>
-      <c r="B408" t="n">
-        <v>73.59885920818313</v>
-      </c>
-      <c r="C408" t="n">
-        <v>73.56783013804349</v>
-      </c>
-      <c r="D408" t="n">
-        <v>0.03102907013963829</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" s="1" t="n">
-        <v>407</v>
-      </c>
-      <c r="B409" t="n">
-        <v>73.60947382890107</v>
-      </c>
-      <c r="C409" t="n">
-        <v>73.64655761284835</v>
-      </c>
-      <c r="D409" t="n">
-        <v>-0.03708378394728129</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" s="1" t="n">
-        <v>408</v>
-      </c>
-      <c r="B410" t="n">
-        <v>73.64873643668869</v>
-      </c>
-      <c r="C410" t="n">
-        <v>73.66252072256914</v>
-      </c>
-      <c r="D410" t="n">
-        <v>-0.01378428588044756</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" s="1" t="n">
-        <v>409</v>
-      </c>
-      <c r="B411" t="n">
-        <v>73.87480277633615</v>
-      </c>
-      <c r="C411" t="n">
-        <v>73.99495119930835</v>
-      </c>
-      <c r="D411" t="n">
-        <v>-0.1201484229721927</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" s="1" t="n">
-        <v>410</v>
-      </c>
-      <c r="B412" t="n">
-        <v>73.88391422121103</v>
-      </c>
-      <c r="C412" t="n">
-        <v>73.9191012266804</v>
-      </c>
-      <c r="D412" t="n">
-        <v>-0.0351870054693677</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" s="1" t="n">
-        <v>411</v>
-      </c>
-      <c r="B413" t="n">
-        <v>73.89797183305353</v>
-      </c>
-      <c r="C413" t="n">
-        <v>73.99230525309149</v>
-      </c>
-      <c r="D413" t="n">
-        <v>-0.09433342003795531</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" s="1" t="n">
-        <v>412</v>
-      </c>
-      <c r="B414" t="n">
-        <v>73.90700826248199</v>
-      </c>
-      <c r="C414" t="n">
-        <v>74.03073011491803</v>
-      </c>
-      <c r="D414" t="n">
-        <v>-0.1237218524360344</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" s="1" t="n">
-        <v>413</v>
-      </c>
-      <c r="B415" t="n">
-        <v>73.92493340228404</v>
-      </c>
-      <c r="C415" t="n">
-        <v>73.97801597147865</v>
-      </c>
-      <c r="D415" t="n">
-        <v>-0.05308256919461485</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" s="1" t="n">
-        <v>414</v>
-      </c>
-      <c r="B416" t="n">
-        <v>73.9512172339323</v>
-      </c>
-      <c r="C416" t="n">
-        <v>74.01527234460298</v>
-      </c>
-      <c r="D416" t="n">
-        <v>-0.06405511067067948</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" s="1" t="n">
-        <v>415</v>
-      </c>
-      <c r="B417" t="n">
-        <v>73.95233211243473</v>
-      </c>
-      <c r="C417" t="n">
-        <v>73.9580872536437</v>
-      </c>
-      <c r="D417" t="n">
-        <v>-0.005755141208965142</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" s="1" t="n">
-        <v>416</v>
-      </c>
-      <c r="B418" t="n">
-        <v>73.95497689919932</v>
-      </c>
-      <c r="C418" t="n">
-        <v>74.04690610233919</v>
-      </c>
-      <c r="D418" t="n">
-        <v>-0.09192920313986974</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" s="1" t="n">
-        <v>417</v>
-      </c>
-      <c r="B419" t="n">
-        <v>73.97192265083554</v>
-      </c>
-      <c r="C419" t="n">
-        <v>74.00717115110096</v>
-      </c>
-      <c r="D419" t="n">
-        <v>-0.03524850026542481</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" s="1" t="n">
-        <v>418</v>
-      </c>
-      <c r="B420" t="n">
-        <v>74.00685156008905</v>
-      </c>
-      <c r="C420" t="n">
-        <v>74.02532078814635</v>
-      </c>
-      <c r="D420" t="n">
-        <v>-0.01846922805729889</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" s="1" t="n">
-        <v>419</v>
-      </c>
-      <c r="B421" t="n">
-        <v>74.01240131411164</v>
-      </c>
-      <c r="C421" t="n">
-        <v>74.01935375513455</v>
-      </c>
-      <c r="D421" t="n">
-        <v>-0.006952441022903599</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" s="1" t="n">
-        <v>420</v>
-      </c>
-      <c r="B422" t="n">
-        <v>74.09555556666028</v>
-      </c>
-      <c r="C422" t="n">
-        <v>74.02050384502917</v>
-      </c>
-      <c r="D422" t="n">
-        <v>0.0750517216311124</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" s="1" t="n">
-        <v>421</v>
-      </c>
-      <c r="B423" t="n">
-        <v>74.29413985964304</v>
-      </c>
-      <c r="C423" t="n">
-        <v>74.00527137254625</v>
-      </c>
-      <c r="D423" t="n">
-        <v>0.2888684870967921</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" s="1" t="n">
-        <v>422</v>
-      </c>
-      <c r="B424" t="n">
-        <v>76.48587254383382</v>
-      </c>
-      <c r="C424" t="n">
-        <v>76.65911773123747</v>
-      </c>
-      <c r="D424" t="n">
-        <v>-0.1732451874036514</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" s="1" t="n">
-        <v>423</v>
-      </c>
-      <c r="B425" t="n">
-        <v>76.4871565521581</v>
-      </c>
-      <c r="C425" t="n">
-        <v>76.52905860429786</v>
-      </c>
-      <c r="D425" t="n">
-        <v>-0.04190205213976128</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" s="1" t="n">
-        <v>424</v>
-      </c>
-      <c r="B426" t="n">
-        <v>76.49349342211789</v>
-      </c>
-      <c r="C426" t="n">
-        <v>76.65112469345782</v>
-      </c>
-      <c r="D426" t="n">
-        <v>-0.1576312713399233</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" s="1" t="n">
-        <v>425</v>
-      </c>
-      <c r="B427" t="n">
-        <v>76.51212467203199</v>
-      </c>
-      <c r="C427" t="n">
-        <v>76.63896867123043</v>
-      </c>
-      <c r="D427" t="n">
-        <v>-0.1268439991984422</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" s="1" t="n">
-        <v>426</v>
-      </c>
-      <c r="B428" t="n">
-        <v>76.59284906202649</v>
-      </c>
-      <c r="C428" t="n">
-        <v>76.60446837288775</v>
-      </c>
-      <c r="D428" t="n">
-        <v>-0.01161931086126344</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" s="1" t="n">
-        <v>427</v>
-      </c>
-      <c r="B429" t="n">
-        <v>76.61217590783147</v>
-      </c>
-      <c r="C429" t="n">
-        <v>76.66461477855489</v>
-      </c>
-      <c r="D429" t="n">
-        <v>-0.05243887072342091</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" s="1" t="n">
-        <v>428</v>
-      </c>
-      <c r="B430" t="n">
-        <v>76.64778812583907</v>
-      </c>
-      <c r="C430" t="n">
-        <v>76.65635004878553</v>
-      </c>
-      <c r="D430" t="n">
-        <v>-0.008561922946455525</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" s="1" t="n">
-        <v>429</v>
-      </c>
-      <c r="B431" t="n">
-        <v>78.54903378942809</v>
-      </c>
-      <c r="C431" t="n">
-        <v>78.67481301966775</v>
-      </c>
-      <c r="D431" t="n">
-        <v>-0.1257792302396581</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" s="1" t="n">
-        <v>430</v>
-      </c>
-      <c r="B432" t="n">
-        <v>78.55591643122217</v>
-      </c>
-      <c r="C432" t="n">
-        <v>78.69312204886194</v>
-      </c>
-      <c r="D432" t="n">
-        <v>-0.1372056176397649</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" s="1" t="n">
-        <v>431</v>
-      </c>
-      <c r="B433" t="n">
-        <v>78.57859157125391</v>
-      </c>
-      <c r="C433" t="n">
-        <v>78.58731236857621</v>
-      </c>
-      <c r="D433" t="n">
-        <v>-0.008720797322297358</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" s="1" t="n">
-        <v>432</v>
-      </c>
-      <c r="B434" t="n">
-        <v>78.60105621613958</v>
-      </c>
-      <c r="C434" t="n">
-        <v>78.74764003534055</v>
-      </c>
-      <c r="D434" t="n">
-        <v>-0.1465838192009699</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" s="1" t="n">
-        <v>433</v>
-      </c>
-      <c r="B435" t="n">
-        <v>78.6224941139796</v>
-      </c>
-      <c r="C435" t="n">
-        <v>78.65392398224078</v>
-      </c>
-      <c r="D435" t="n">
-        <v>-0.03142986826118488</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" s="1" t="n">
-        <v>434</v>
-      </c>
-      <c r="B436" t="n">
-        <v>78.62314610841189</v>
-      </c>
-      <c r="C436" t="n">
-        <v>78.73289727295798</v>
-      </c>
-      <c r="D436" t="n">
-        <v>-0.1097511645460969</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" s="1" t="n">
-        <v>435</v>
-      </c>
-      <c r="B437" t="n">
-        <v>78.63582814853454</v>
-      </c>
-      <c r="C437" t="n">
-        <v>78.68280158346484</v>
-      </c>
-      <c r="D437" t="n">
-        <v>-0.04697343493029393</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" s="1" t="n">
-        <v>436</v>
-      </c>
-      <c r="B438" t="n">
-        <v>78.66411639494754</v>
-      </c>
-      <c r="C438" t="n">
-        <v>78.74788162373139</v>
-      </c>
-      <c r="D438" t="n">
-        <v>-0.08376522878384662</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" s="1" t="n">
-        <v>437</v>
-      </c>
-      <c r="B439" t="n">
-        <v>78.66809975828602</v>
-      </c>
-      <c r="C439" t="n">
-        <v>78.702352409193</v>
-      </c>
-      <c r="D439" t="n">
-        <v>-0.03425265090697849</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" s="1" t="n">
-        <v>438</v>
-      </c>
-      <c r="B440" t="n">
-        <v>78.69612820822159</v>
-      </c>
-      <c r="C440" t="n">
-        <v>78.73097693285769</v>
-      </c>
-      <c r="D440" t="n">
-        <v>-0.03484872463609179</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" s="1" t="n">
-        <v>439</v>
-      </c>
-      <c r="B441" t="n">
-        <v>78.88257327356969</v>
-      </c>
-      <c r="C441" t="n">
-        <v>78.73935140043321</v>
-      </c>
-      <c r="D441" t="n">
-        <v>0.1432218731364827</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" s="1" t="n">
-        <v>440</v>
-      </c>
-      <c r="B442" t="n">
-        <v>83.48492068887997</v>
-      </c>
-      <c r="C442" t="n">
-        <v>83.49609813710714</v>
-      </c>
-      <c r="D442" t="n">
-        <v>-0.0111774482271727</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" s="1" t="n">
-        <v>441</v>
-      </c>
-      <c r="B443" t="n">
-        <v>83.5033558541803</v>
-      </c>
-      <c r="C443" t="n">
-        <v>83.52024091966952</v>
-      </c>
-      <c r="D443" t="n">
-        <v>-0.01688506548921964</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" s="1" t="n">
-        <v>442</v>
-      </c>
-      <c r="B444" t="n">
-        <v>83.51127319320602</v>
-      </c>
-      <c r="C444" t="n">
-        <v>83.52024931514127</v>
-      </c>
-      <c r="D444" t="n">
-        <v>-0.008976121935248216</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" s="1" t="n">
-        <v>443</v>
-      </c>
-      <c r="B445" t="n">
-        <v>83.53800343790874</v>
-      </c>
-      <c r="C445" t="n">
-        <v>83.54794231792103</v>
-      </c>
-      <c r="D445" t="n">
-        <v>-0.009938880012285267</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" s="1" t="n">
-        <v>444</v>
-      </c>
-      <c r="B446" t="n">
-        <v>83.56084680838573</v>
-      </c>
-      <c r="C446" t="n">
-        <v>83.64103980360873</v>
-      </c>
-      <c r="D446" t="n">
-        <v>-0.08019299522300116</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" s="1" t="n">
-        <v>445</v>
-      </c>
-      <c r="B447" t="n">
-        <v>83.59079535708238</v>
-      </c>
-      <c r="C447" t="n">
-        <v>83.60730768221813</v>
-      </c>
-      <c r="D447" t="n">
-        <v>-0.01651232513574996</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" s="1" t="n">
-        <v>446</v>
-      </c>
-      <c r="B448" t="n">
-        <v>87.05720932230048</v>
-      </c>
-      <c r="C448" t="n">
-        <v>87.06585687067823</v>
-      </c>
-      <c r="D448" t="n">
-        <v>-0.008647548377751946</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" s="1" t="n">
-        <v>447</v>
-      </c>
-      <c r="B449" t="n">
-        <v>87.08662814051787</v>
-      </c>
-      <c r="C449" t="n">
-        <v>87.2765338925489</v>
-      </c>
-      <c r="D449" t="n">
-        <v>-0.1899057520310237</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" s="1" t="n">
-        <v>448</v>
-      </c>
-      <c r="B450" t="n">
-        <v>87.10347131045739</v>
-      </c>
-      <c r="C450" t="n">
-        <v>87.16216103818184</v>
-      </c>
-      <c r="D450" t="n">
-        <v>-0.05868972772444181</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" s="1" t="n">
-        <v>449</v>
-      </c>
-      <c r="B451" t="n">
-        <v>87.10437440563059</v>
-      </c>
-      <c r="C451" t="n">
-        <v>87.18848361330224</v>
-      </c>
-      <c r="D451" t="n">
-        <v>-0.08410920767164498</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" s="1" t="n">
-        <v>450</v>
-      </c>
-      <c r="B452" t="n">
-        <v>87.11974636477454</v>
-      </c>
-      <c r="C452" t="n">
-        <v>87.22624758107899</v>
-      </c>
-      <c r="D452" t="n">
-        <v>-0.1065012163044514</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" s="1" t="n">
-        <v>451</v>
-      </c>
-      <c r="B453" t="n">
-        <v>88.59886930633689</v>
-      </c>
-      <c r="C453" t="n">
-        <v>88.74017359950628</v>
-      </c>
-      <c r="D453" t="n">
-        <v>-0.1413042931693838</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" s="1" t="n">
-        <v>452</v>
-      </c>
-      <c r="B454" t="n">
-        <v>88.60320861088026</v>
-      </c>
-      <c r="C454" t="n">
-        <v>88.60588706161727</v>
-      </c>
-      <c r="D454" t="n">
-        <v>-0.00267845073700812</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" s="1" t="n">
-        <v>453</v>
-      </c>
-      <c r="B455" t="n">
-        <v>88.60982806726682</v>
-      </c>
-      <c r="C455" t="n">
-        <v>88.75305714572845</v>
-      </c>
-      <c r="D455" t="n">
-        <v>-0.1432290784616299</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" s="1" t="n">
-        <v>454</v>
-      </c>
-      <c r="B456" t="n">
-        <v>88.66103584871185</v>
-      </c>
-      <c r="C456" t="n">
-        <v>88.66337243847913</v>
-      </c>
-      <c r="D456" t="n">
-        <v>-0.002336589767281794</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" s="1" t="n">
-        <v>455</v>
-      </c>
-      <c r="B457" t="n">
-        <v>88.70088538881713</v>
-      </c>
-      <c r="C457" t="n">
-        <v>88.75903724637082</v>
-      </c>
-      <c r="D457" t="n">
-        <v>-0.05815185755369612</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" s="1" t="n">
-        <v>456</v>
-      </c>
-      <c r="B458" t="n">
-        <v>88.7050702006418</v>
-      </c>
-      <c r="C458" t="n">
-        <v>88.72087101322309</v>
-      </c>
-      <c r="D458" t="n">
-        <v>-0.01580081258128985</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" s="1" t="n">
-        <v>457</v>
-      </c>
-      <c r="B459" t="n">
-        <v>88.71470161218528</v>
-      </c>
-      <c r="C459" t="n">
-        <v>88.73314456137105</v>
-      </c>
-      <c r="D459" t="n">
-        <v>-0.0184429491857685</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" s="1" t="n">
-        <v>458</v>
-      </c>
-      <c r="B460" t="n">
-        <v>95.89969279176292</v>
-      </c>
-      <c r="C460" t="n">
-        <v>95.97467982456727</v>
-      </c>
-      <c r="D460" t="n">
-        <v>-0.07498703280435848</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" s="1" t="n">
-        <v>459</v>
-      </c>
-      <c r="B461" t="n">
-        <v>95.91424714020826</v>
-      </c>
-      <c r="C461" t="n">
-        <v>95.9337523998839</v>
-      </c>
-      <c r="D461" t="n">
-        <v>-0.01950525967563976</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" s="1" t="n">
-        <v>460</v>
-      </c>
-      <c r="B462" t="n">
-        <v>95.92800406875443</v>
-      </c>
-      <c r="C462" t="n">
-        <v>96.04860723059321</v>
-      </c>
-      <c r="D462" t="n">
-        <v>-0.1206031618387726</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" s="1" t="n">
-        <v>461</v>
-      </c>
-      <c r="B463" t="n">
-        <v>95.97216327412629</v>
-      </c>
-      <c r="C463" t="n">
-        <v>96.09439002873518</v>
-      </c>
-      <c r="D463" t="n">
-        <v>-0.1222267546088887</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" s="1" t="n">
-        <v>462</v>
-      </c>
-      <c r="B464" t="n">
-        <v>95.9797403446142</v>
-      </c>
-      <c r="C464" t="n">
-        <v>96.09156912617195</v>
-      </c>
-      <c r="D464" t="n">
-        <v>-0.1118287815577474</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" s="1" t="n">
-        <v>463</v>
-      </c>
-      <c r="B465" t="n">
-        <v>95.98097221337993</v>
-      </c>
-      <c r="C465" t="n">
-        <v>95.99213751573259</v>
-      </c>
-      <c r="D465" t="n">
-        <v>-0.01116530235266566</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" s="1" t="n">
-        <v>464</v>
-      </c>
-      <c r="B466" t="n">
-        <v>95.98543708739727</v>
-      </c>
-      <c r="C466" t="n">
-        <v>96.05615837130701</v>
-      </c>
-      <c r="D466" t="n">
-        <v>-0.07072128390973376</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" s="1" t="n">
-        <v>465</v>
-      </c>
-      <c r="B467" t="n">
-        <v>95.99159481674684</v>
-      </c>
-      <c r="C467" t="n">
-        <v>96.10568374715028</v>
-      </c>
-      <c r="D467" t="n">
-        <v>-0.1140889304034403</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" s="1" t="n">
-        <v>466</v>
-      </c>
-      <c r="B468" t="n">
-        <v>95.99919327082431</v>
-      </c>
-      <c r="C468" t="n">
-        <v>96.00430700193141</v>
-      </c>
-      <c r="D468" t="n">
-        <v>-0.005113731107101671</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" s="1" t="n">
-        <v>467</v>
-      </c>
-      <c r="B469" t="n">
-        <v>96.00066062570119</v>
-      </c>
-      <c r="C469" t="n">
-        <v>96.10468700423395</v>
-      </c>
-      <c r="D469" t="n">
-        <v>-0.1040263785327653</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" s="1" t="n">
-        <v>468</v>
-      </c>
-      <c r="B470" t="n">
-        <v>96.03578619682618</v>
-      </c>
-      <c r="C470" t="n">
-        <v>96.06597478954085</v>
-      </c>
-      <c r="D470" t="n">
-        <v>-0.03018859271466567</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" s="1" t="n">
-        <v>469</v>
-      </c>
-      <c r="B471" t="n">
-        <v>96.05739423004982</v>
-      </c>
-      <c r="C471" t="n">
-        <v>96.08702229899166</v>
-      </c>
-      <c r="D471" t="n">
-        <v>-0.02962806894183245</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" s="1" t="n">
-        <v>470</v>
-      </c>
-      <c r="B472" t="n">
-        <v>96.07188579067812</v>
-      </c>
-      <c r="C472" t="n">
-        <v>96.10228713232364</v>
-      </c>
-      <c r="D472" t="n">
-        <v>-0.03040134164551489</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" s="1" t="n">
-        <v>471</v>
-      </c>
-      <c r="B473" t="n">
-        <v>97.72002151682273</v>
-      </c>
-      <c r="C473" t="n">
-        <v>97.7601796950059</v>
-      </c>
-      <c r="D473" t="n">
-        <v>-0.04015817818317657</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" s="1" t="n">
-        <v>472</v>
-      </c>
-      <c r="B474" t="n">
-        <v>97.72482384678977</v>
-      </c>
-      <c r="C474" t="n">
-        <v>97.77977519652892</v>
-      </c>
-      <c r="D474" t="n">
-        <v>-0.05495134973914162</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" s="1" t="n">
-        <v>473</v>
-      </c>
-      <c r="B475" t="n">
-        <v>97.72710885995103</v>
-      </c>
-      <c r="C475" t="n">
-        <v>97.88204447192854</v>
-      </c>
-      <c r="D475" t="n">
-        <v>-0.1549356119775069</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" s="1" t="n">
-        <v>474</v>
-      </c>
-      <c r="B476" t="n">
-        <v>97.72999924584256</v>
-      </c>
-      <c r="C476" t="n">
-        <v>97.74953493581985</v>
-      </c>
-      <c r="D476" t="n">
-        <v>-0.01953568997728894</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" s="1" t="n">
-        <v>475</v>
-      </c>
-      <c r="B477" t="n">
-        <v>97.7386478548259</v>
-      </c>
-      <c r="C477" t="n">
-        <v>97.80039706499899</v>
-      </c>
-      <c r="D477" t="n">
-        <v>-0.06174921017309032</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" s="1" t="n">
-        <v>476</v>
-      </c>
-      <c r="B478" t="n">
-        <v>97.74841348025572</v>
-      </c>
-      <c r="C478" t="n">
-        <v>97.92697753857472</v>
-      </c>
-      <c r="D478" t="n">
-        <v>-0.1785640583189974</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" s="1" t="n">
-        <v>477</v>
-      </c>
-      <c r="B479" t="n">
-        <v>97.7487850198915</v>
-      </c>
-      <c r="C479" t="n">
-        <v>97.7568032086766</v>
-      </c>
-      <c r="D479" t="n">
-        <v>-0.008018188785101188</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" s="1" t="n">
-        <v>478</v>
-      </c>
-      <c r="B480" t="n">
-        <v>97.774674718207</v>
-      </c>
-      <c r="C480" t="n">
-        <v>97.91368061855471</v>
-      </c>
-      <c r="D480" t="n">
-        <v>-0.139005900347712</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" s="1" t="n">
-        <v>479</v>
-      </c>
-      <c r="B481" t="n">
-        <v>97.78685410909337</v>
-      </c>
-      <c r="C481" t="n">
-        <v>97.90161550669434</v>
-      </c>
-      <c r="D481" t="n">
-        <v>-0.1147613976009723</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="B482" t="n">
-        <v>97.85805077150502</v>
-      </c>
-      <c r="C482" t="n">
-        <v>97.88778813970133</v>
-      </c>
-      <c r="D482" t="n">
-        <v>-0.02973736819630801</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" s="1" t="n">
-        <v>481</v>
-      </c>
-      <c r="B483" t="n">
-        <v>97.85865544014074</v>
-      </c>
-      <c r="C483" t="n">
-        <v>97.88203620993647</v>
-      </c>
-      <c r="D483" t="n">
-        <v>-0.023380769795736</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" s="1" t="n">
-        <v>482</v>
-      </c>
-      <c r="B484" t="n">
-        <v>97.87744781117124</v>
-      </c>
-      <c r="C484" t="n">
-        <v>97.88860680790432</v>
-      </c>
-      <c r="D484" t="n">
-        <v>-0.01115899673308718</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" s="1" t="n">
-        <v>483</v>
-      </c>
-      <c r="B485" t="n">
-        <v>98.12068771489841</v>
-      </c>
-      <c r="C485" t="n">
-        <v>97.90584967039653</v>
-      </c>
-      <c r="D485" t="n">
-        <v>0.2148380445018745</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" s="1" t="n">
-        <v>484</v>
-      </c>
-      <c r="B486" t="n">
-        <v>98.20411165217352</v>
-      </c>
-      <c r="C486" t="n">
-        <v>97.93331582333856</v>
-      </c>
-      <c r="D486" t="n">
-        <v>0.270795828834963</v>
+        <v>0.05375750342423657</v>
       </c>
     </row>
   </sheetData>
